--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927CE54-9C4C-9645-B2CD-CA15BDEE32B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46319E-B535-DE48-8807-AD4AFE0FFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="3160" windowWidth="28220" windowHeight="16380" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="39940" yWindow="3160" windowWidth="28220" windowHeight="16380" activeTab="6" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="180">
   <si>
     <t>Team</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>P12</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Mississippi St.</t>
   </si>
   <si>
-    <t>St. John's</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>Creighton</t>
   </si>
   <si>
-    <t>VCU</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -437,15 +425,9 @@
     <t>BW</t>
   </si>
   <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
     <t>CUSA</t>
   </si>
   <si>
-    <t>North Texas</t>
-  </si>
-  <si>
     <t>BSth</t>
   </si>
   <si>
@@ -467,9 +449,6 @@
     <t>CAA</t>
   </si>
   <si>
-    <t>George Mason</t>
-  </si>
-  <si>
     <t>ASun</t>
   </si>
   <si>
@@ -497,9 +476,6 @@
     <t>OVC</t>
   </si>
   <si>
-    <t>Murray St.</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -518,12 +494,6 @@
     <t>Northern Colorado</t>
   </si>
   <si>
-    <t>GWC</t>
-  </si>
-  <si>
-    <t>Utah Valley</t>
-  </si>
-  <si>
     <t>MEAC</t>
   </si>
   <si>
@@ -533,33 +503,18 @@
     <t>Slnd</t>
   </si>
   <si>
-    <t>Sam Houston St.</t>
-  </si>
-  <si>
     <t>Horz</t>
   </si>
   <si>
-    <t>Illinois Chicago</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
-    <t>UMass Lowell</t>
-  </si>
-  <si>
     <t>NEC</t>
   </si>
   <si>
-    <t>Bryant</t>
-  </si>
-  <si>
     <t>MAAC</t>
   </si>
   <si>
-    <t>Marist</t>
-  </si>
-  <si>
     <t>SWAC</t>
   </si>
   <si>
@@ -575,9 +530,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
@@ -588,6 +540,48 @@
   </si>
   <si>
     <t>Total Teams</t>
+  </si>
+  <si>
+    <t>St. John'S</t>
+  </si>
+  <si>
+    <t>Saint Mary'S</t>
+  </si>
+  <si>
+    <t>Vcu</t>
+  </si>
+  <si>
+    <t>Uc Irvine</t>
+  </si>
+  <si>
+    <t>High Point</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Purdue Fort Wayne</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M Corpus Chris</t>
+  </si>
+  <si>
+    <t>Umass Lowell</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>Central Connecticut</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Ucla</t>
+  </si>
+  <si>
+    <t>Villanova</t>
   </si>
 </sst>
 </file>
@@ -975,7 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC26E8-D6C2-0E4A-830A-7AA78E1502E8}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -984,43 +980,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.121</v>
@@ -1314,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>3.3000000000000002E-2</v>
@@ -1337,7 +1333,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1363,7 +1359,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1389,7 +1385,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1415,10 +1411,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>3.0000000000000001E-3</v>
@@ -1441,27 +1437,27 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1470,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,42 +1480,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1605,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.185</v>
@@ -1865,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>6.4000000000000001E-2</v>
@@ -1888,7 +1884,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1940,7 +1936,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1966,7 +1962,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1992,7 +1988,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -2018,7 +2014,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -2044,27 +2040,27 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2074,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,42 +2083,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2208,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.28100000000000003</v>
@@ -2494,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>0.128</v>
@@ -2543,7 +2539,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -2595,7 +2591,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -2621,7 +2617,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2647,7 +2643,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2673,7 +2669,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -2699,10 +2695,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2">
         <v>7.8E-2</v>
@@ -2725,10 +2721,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
         <v>6.3E-2</v>
@@ -2751,7 +2747,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -2777,7 +2773,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -2803,7 +2799,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -2829,7 +2825,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2855,7 +2851,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -2881,10 +2877,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
         <v>2.7E-2</v>
@@ -2905,29 +2901,29 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2939,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,43 +2946,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3072,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.51</v>
@@ -3410,7 +3406,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>0.23599999999999999</v>
@@ -3433,7 +3429,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3459,7 +3455,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -3485,7 +3481,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -3511,7 +3507,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -3537,7 +3533,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -3563,7 +3559,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -3589,7 +3585,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -3615,10 +3611,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2">
         <v>0.155</v>
@@ -3641,10 +3637,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>0.126</v>
@@ -3667,7 +3663,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -3719,7 +3715,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -3745,7 +3741,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3771,7 +3767,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -3797,10 +3793,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>7.3999999999999996E-2</v>
@@ -3823,10 +3819,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
         <v>5.7000000000000002E-2</v>
@@ -3849,7 +3845,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -3875,27 +3871,27 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3904,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3918,48 +3914,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3970,10 +3966,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -4045,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.91100000000000003</v>
@@ -4383,7 +4379,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>0.45800000000000002</v>
@@ -4406,7 +4402,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -4432,7 +4428,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -4458,7 +4454,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -4484,7 +4480,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -4510,7 +4506,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -4536,7 +4532,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -4562,7 +4558,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -4588,10 +4584,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2">
         <v>0.32400000000000001</v>
@@ -4614,10 +4610,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>0.27500000000000002</v>
@@ -4640,7 +4636,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -4666,7 +4662,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -4692,7 +4688,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -4744,7 +4740,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -4770,10 +4766,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>0.19</v>
@@ -4796,10 +4792,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
         <v>0.16200000000000001</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -4848,10 +4844,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2">
         <v>0.122</v>
@@ -4874,7 +4870,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -4900,27 +4896,27 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4932,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4943,42 +4939,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5064,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0.91500000000000004</v>
@@ -5402,7 +5398,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>0.51300000000000001</v>
@@ -5425,7 +5421,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -5451,7 +5447,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -5477,7 +5473,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -5503,7 +5499,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -5529,7 +5525,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -5555,7 +5551,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -5581,7 +5577,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -5607,7 +5603,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -5633,10 +5629,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
         <v>0.39400000000000002</v>
@@ -5659,10 +5655,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>0.35099999999999998</v>
@@ -5685,7 +5681,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -5711,7 +5707,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -5737,7 +5733,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -5763,7 +5759,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -5789,7 +5785,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -5815,7 +5811,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -5841,10 +5837,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2">
         <v>0.27400000000000002</v>
@@ -5867,7 +5863,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -5893,7 +5889,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -5919,10 +5915,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2">
         <v>0.249</v>
@@ -5945,7 +5941,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -5971,10 +5967,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
         <v>0.215</v>
@@ -5997,10 +5993,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2">
         <v>0.21199999999999999</v>
@@ -6023,7 +6019,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -6049,10 +6045,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <v>0.2</v>
@@ -6075,27 +6071,27 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6107,20 +6103,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6131,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6158,7 +6154,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6169,57 +6165,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>31.4</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>26.84</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>26.14</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>25.69</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C12">
-        <v>23.97</v>
+        <v>17.670000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6227,367 +6223,367 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C13">
-        <v>17.670000000000002</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C14">
-        <v>16.190000000000001</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15">
-        <v>13.97</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16">
-        <v>12.63</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17">
-        <v>11.46</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
       <c r="C18">
-        <v>10.79</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
       <c r="C19">
-        <v>10.16</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
       <c r="C20">
-        <v>9.0399999999999991</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C21">
-        <v>8.83</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22">
-        <v>7.05</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23">
-        <v>6.37</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24">
-        <v>5.67</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C25">
-        <v>4.9800000000000004</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C26">
-        <v>4.8099999999999996</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C27">
-        <v>4.12</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C28">
-        <v>2.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C29">
-        <v>1.1200000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C31">
-        <v>0.98</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C32">
-        <v>0.92</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C33">
-        <v>0.37</v>
+        <v>-4.9800000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C34">
-        <v>-0.83</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C35">
-        <v>-4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36">
-        <v>-4.9800000000000004</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37">
-        <v>-5.82</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>31.4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>30.13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>30.13</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>29.26</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>28.33</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>27.8</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45">
-        <v>25.18</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>24.39</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47">
-        <v>23.98</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6603,7 +6599,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -6614,7 +6610,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -6625,7 +6621,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -6636,7 +6632,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -6647,7 +6643,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -6658,7 +6654,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
@@ -6669,7 +6665,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -6680,7 +6676,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -6691,7 +6687,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -6702,10 +6698,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>20.97</v>
@@ -6713,10 +6709,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>19.850000000000001</v>
@@ -6724,7 +6720,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -6735,7 +6731,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -6746,7 +6742,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -6757,10 +6753,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>18.98</v>
@@ -6768,7 +6764,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -6790,138 +6786,138 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>18.18</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>17.96</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>17.899999999999999</v>
+        <v>17.329999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C69">
-        <v>17.329999999999998</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>17.25</v>
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>17.170000000000002</v>
+        <v>17.059999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C72">
-        <v>17.059999999999999</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>16.399999999999999</v>
+        <v>16.309999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>16.309999999999999</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
       <c r="C75">
-        <v>16.21</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B78">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B79">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B80">
         <v>68</v>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46319E-B535-DE48-8807-AD4AFE0FFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE297C-169A-B642-85DE-E4F24059D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="3160" windowWidth="28220" windowHeight="16380" activeTab="6" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="39940" yWindow="3160" windowWidth="28220" windowHeight="16380" activeTab="4" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="180">
   <si>
     <t>Team</t>
   </si>
@@ -185,18 +185,12 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Utah St.</t>
-  </si>
-  <si>
     <t>MWC</t>
   </si>
   <si>
@@ -230,12 +224,6 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.68</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 15</t>
-  </si>
-  <si>
-    <t>Teams meeting Champions criteria (sorted by probability):</t>
-  </si>
-  <si>
     <t>Metric Correlations with Wins (weights):</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
     <t>AdjEM: 0.425</t>
   </si>
   <si>
-    <t>Total probability sum: 1.000 (target: 1)</t>
-  </si>
-  <si>
     <t>Championship Game</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.72</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 19</t>
-  </si>
-  <si>
     <t>Teams meeting Championship Game criteria (sorted by probability):</t>
   </si>
   <si>
@@ -296,9 +278,6 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.41</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 29</t>
-  </si>
-  <si>
     <t>Teams meeting Final Four criteria (sorted by probability):</t>
   </si>
   <si>
@@ -353,18 +332,12 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.26</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 35</t>
-  </si>
-  <si>
     <t>AdjOE: 0.308</t>
   </si>
   <si>
     <t>AdjDE: 0.266</t>
   </si>
   <si>
-    <t>Total probability sum: 15.707 (target: 16)</t>
-  </si>
-  <si>
     <t>Teams meeting Sweet</t>
   </si>
   <si>
@@ -389,9 +362,6 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.08</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 41</t>
-  </si>
-  <si>
     <t>Teams meeting Round of 32 criteria (sorted by probability):</t>
   </si>
   <si>
@@ -401,12 +371,6 @@
     <t>AdjEM: 0.419</t>
   </si>
   <si>
-    <t>Total probability sum: 19.356 (target: 32)</t>
-  </si>
-  <si>
-    <t>TOURNAMENT FIELD</t>
-  </si>
-  <si>
     <t>AUTO BID TEAMS:</t>
   </si>
   <si>
@@ -485,9 +449,6 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>Kent St.</t>
-  </si>
-  <si>
     <t>BSky</t>
   </si>
   <si>
@@ -542,46 +503,85 @@
     <t>Total Teams</t>
   </si>
   <si>
-    <t>St. John'S</t>
-  </si>
-  <si>
-    <t>Saint Mary'S</t>
-  </si>
-  <si>
-    <t>Vcu</t>
-  </si>
-  <si>
-    <t>Uc Irvine</t>
-  </si>
-  <si>
     <t>High Point</t>
   </si>
   <si>
-    <t>Charleston</t>
-  </si>
-  <si>
     <t>Purdue Fort Wayne</t>
   </si>
   <si>
-    <t>Texas A&amp;M Corpus Chris</t>
-  </si>
-  <si>
-    <t>Umass Lowell</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
     <t>Central Connecticut</t>
   </si>
   <si>
     <t>Little Rock</t>
   </si>
   <si>
-    <t>Ucla</t>
-  </si>
-  <si>
-    <t>Villanova</t>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>UNC Wilmington</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M Corpus Chr</t>
+  </si>
+  <si>
+    <t>Quinnipiac</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Number of teams meeting</t>
+  </si>
+  <si>
+    <t>criteria: 14</t>
+  </si>
+  <si>
+    <t>Total probability sum:</t>
+  </si>
+  <si>
+    <t>1.000 (target: 1)</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 17</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 26</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 36</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 43</t>
+  </si>
+  <si>
+    <t>Total probability sum: 19.260 (target: 32)</t>
+  </si>
+  <si>
+    <t>Total probability sum: 15.219 (target: 16)</t>
   </si>
 </sst>
 </file>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC26E8-D6C2-0E4A-830A-7AA78E1502E8}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,147 +980,171 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="D11">
+        <v>546</v>
+      </c>
+      <c r="E11">
+        <v>1.24</v>
+      </c>
+      <c r="F11">
+        <v>2.9</v>
+      </c>
+      <c r="G11">
+        <v>3.28</v>
+      </c>
+      <c r="H11">
+        <v>1.78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.159</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D12">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="E12">
-        <v>1.24</v>
+        <v>1.161</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.13900000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="D13">
-        <v>618</v>
+        <v>793</v>
       </c>
       <c r="E13">
-        <v>1.0840000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0.121</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D14">
-        <v>728</v>
+        <v>984</v>
       </c>
       <c r="E14">
-        <v>0.94</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,48 +1155,48 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.104</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D15">
-        <v>859</v>
+        <v>1044</v>
       </c>
       <c r="E15">
-        <v>0.81200000000000006</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>9.2999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D16">
-        <v>973</v>
+        <v>1348</v>
       </c>
       <c r="E16">
-        <v>0.72499999999999998</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1183,53 +1207,53 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>7.8E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D17">
-        <v>1182</v>
+        <v>1396</v>
       </c>
       <c r="E17">
-        <v>0.60699999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F17">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G17">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H17">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D18">
-        <v>1391</v>
+        <v>1665</v>
       </c>
       <c r="E18">
-        <v>0.52200000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F18">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="G18">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="H18">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1238,226 +1262,177 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="D19">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="E19">
-        <v>0.40799999999999997</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="F19">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="G19">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="H19">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D20">
-        <v>2069</v>
+        <v>2346</v>
       </c>
       <c r="E20">
-        <v>0.35899999999999999</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F20">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="G20">
-        <v>1.81</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H20">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D21">
-        <v>2530</v>
+        <v>2432</v>
       </c>
       <c r="E21">
-        <v>0.29599999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="F21">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="G21">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="H21">
-        <v>2.0299999999999998</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D22">
-        <v>2911</v>
+        <v>3112</v>
       </c>
       <c r="E22">
-        <v>0.25900000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="F22">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G22">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="H22">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>2.7E-2</v>
       </c>
       <c r="D23">
-        <v>3623</v>
+        <v>3611</v>
       </c>
       <c r="E23">
-        <v>0.20899999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="F23">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G23">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>2.3E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>4185</v>
+        <v>3783</v>
       </c>
       <c r="E24">
-        <v>0.182</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="F24">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G24">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H24">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D25">
-        <v>6403</v>
-      </c>
-      <c r="E25">
-        <v>0.12</v>
-      </c>
-      <c r="F25">
-        <v>1.81</v>
-      </c>
-      <c r="G25">
-        <v>1.6</v>
-      </c>
-      <c r="H25">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D26">
-        <v>28870</v>
-      </c>
-      <c r="E26">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.69</v>
-      </c>
-      <c r="G26">
-        <v>1.63</v>
-      </c>
-      <c r="H26">
-        <v>1.35</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>68</v>
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D92530-17DC-CB45-8C20-9976A35F4891}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,42 +1455,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1552,22 +1527,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.249</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="D12">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E12">
-        <v>1.357</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="F12">
         <v>2.9</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1578,22 +1553,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D13">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="E13">
-        <v>1.161</v>
+        <v>1.24</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1604,74 +1579,74 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="D14">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E14">
-        <v>1.006</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.16600000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D15">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E15">
-        <v>0.90200000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="D16">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="E16">
-        <v>0.81799999999999995</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1682,282 +1657,282 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.13200000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="D17">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="E17">
-        <v>0.71599999999999997</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="F17">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G17">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H17">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="D18">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="E18">
-        <v>0.627</v>
+        <v>0.62</v>
       </c>
       <c r="F18">
-        <v>2.17</v>
+        <v>2.34</v>
       </c>
       <c r="G18">
-        <v>2.42</v>
+        <v>1.66</v>
       </c>
       <c r="H18">
-        <v>1.36</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.113</v>
+        <v>0.108</v>
       </c>
       <c r="D19">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="E19">
-        <v>0.61399999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F19">
-        <v>2.36</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
-        <v>1.53</v>
+        <v>2.13</v>
       </c>
       <c r="H19">
-        <v>2.73</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D20">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="E20">
-        <v>0.54600000000000004</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F20">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D21">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="E21">
-        <v>0.495</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F21">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="G21">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="H21">
-        <v>1.79</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D22">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="E22">
-        <v>0.442</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="F22">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="G22">
-        <v>1.81</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D23">
-        <v>1363</v>
+        <v>1143</v>
       </c>
       <c r="E23">
-        <v>0.372</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F23">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="H23">
-        <v>2.0299999999999998</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D24">
-        <v>1456</v>
+        <v>1432</v>
       </c>
       <c r="E24">
-        <v>0.35</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F24">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="H24">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D25">
-        <v>1685</v>
+        <v>1619</v>
       </c>
       <c r="E25">
-        <v>0.30499999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F25">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="H25">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D26">
-        <v>1695</v>
+        <v>1647</v>
       </c>
       <c r="E26">
-        <v>0.30299999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F26">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H26">
-        <v>2.0299999999999998</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D27">
-        <v>1875</v>
+        <v>1937</v>
       </c>
       <c r="E27">
-        <v>0.27600000000000002</v>
+        <v>0.249</v>
       </c>
       <c r="F27">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G27">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="H27">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,22 +1943,22 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D28">
-        <v>1914</v>
+        <v>2216</v>
       </c>
       <c r="E28">
-        <v>0.27</v>
+        <v>0.219</v>
       </c>
       <c r="F28">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G28">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="H28">
-        <v>1.95</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2012,55 +1987,29 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D30">
-        <v>4364</v>
-      </c>
-      <c r="E30">
-        <v>0.122</v>
-      </c>
-      <c r="F30">
-        <v>1.74</v>
-      </c>
-      <c r="G30">
-        <v>1.48</v>
-      </c>
-      <c r="H30">
-        <v>1.6</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2083,42 +2032,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2155,22 +2104,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="D12">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E12">
-        <v>1.55</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="F12">
         <v>2.9</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2181,22 +2130,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="D13">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="E13">
-        <v>1.4330000000000001</v>
+        <v>1.508</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2207,105 +2156,105 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.28100000000000003</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D14">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E14">
-        <v>1.3009999999999999</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>0.248</v>
       </c>
       <c r="D15">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15">
-        <v>1.147</v>
+        <v>1.069</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>0.22900000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D16">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E16">
-        <v>1.0580000000000001</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D17">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="E17">
-        <v>0.92300000000000004</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="F17">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="G17">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="H17">
-        <v>1.33</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2317,458 +2266,458 @@
         <v>404</v>
       </c>
       <c r="E18">
-        <v>0.91600000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F18">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="G18">
-        <v>1.53</v>
+        <v>2.46</v>
       </c>
       <c r="H18">
-        <v>2.73</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="D19">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E19">
-        <v>0.84699999999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="F19">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
-        <v>1.47</v>
+        <v>2.13</v>
       </c>
       <c r="H19">
-        <v>2.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.182</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D20">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E20">
-        <v>0.84199999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="F20">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.161</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D21">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="E21">
-        <v>0.745</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="F21">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="G21">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="H21">
-        <v>1.79</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>0.152</v>
       </c>
       <c r="D22">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E22">
-        <v>0.70099999999999996</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F22">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="G22">
-        <v>1.81</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.13900000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="D23">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="E23">
-        <v>0.64500000000000002</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F23">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="H23">
-        <v>2.0299999999999998</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.13300000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D24">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="E24">
-        <v>0.61299999999999999</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="F24">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>2.11</v>
+        <v>1.69</v>
       </c>
       <c r="H24">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="D25">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E25">
-        <v>0.59199999999999997</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="F25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="H25">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="D26">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E26">
-        <v>0.57999999999999996</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="F26">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H26">
-        <v>2.0299999999999998</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="D27">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="E27">
         <v>0.54500000000000004</v>
       </c>
       <c r="F27">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="G27">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="H27">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.11600000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="D28">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="E28">
-        <v>0.53800000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F28">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.94</v>
+        <v>1.49</v>
       </c>
       <c r="H28">
-        <v>1.33</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>0.111</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D29">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="E29">
-        <v>0.51200000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="F29">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="H29">
-        <v>1.36</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="D30">
-        <v>904</v>
+        <v>828</v>
       </c>
       <c r="E30">
-        <v>0.46</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F30">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G30">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="H30">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D31">
-        <v>948</v>
+        <v>1224</v>
       </c>
       <c r="E31">
-        <v>0.441</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F31">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="G31">
-        <v>1.1599999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="H31">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D32">
-        <v>1105</v>
+        <v>1327</v>
       </c>
       <c r="E32">
-        <v>0.38400000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F32">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="G32">
+        <v>1.45</v>
+      </c>
+      <c r="H32">
         <v>1.48</v>
-      </c>
-      <c r="H32">
-        <v>1.6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>7.8E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D33">
-        <v>1178</v>
+        <v>1415</v>
       </c>
       <c r="E33">
-        <v>0.36199999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F33">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="G33">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="H33">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D34">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="E34">
-        <v>0.29099999999999998</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F34">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G34">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="H34">
-        <v>1.1200000000000001</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D35">
-        <v>1986</v>
+        <v>1818</v>
       </c>
       <c r="E35">
-        <v>0.222</v>
+        <v>0.224</v>
       </c>
       <c r="F35">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G35">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H35">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2779,151 +2728,73 @@
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>2071</v>
+        <v>2596</v>
       </c>
       <c r="E36">
-        <v>0.21299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F36">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="G36">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="H36">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D37">
-        <v>2114</v>
+        <v>3183</v>
       </c>
       <c r="E37">
-        <v>0.20899999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F37">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="G37">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="H37">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D38">
-        <v>2475</v>
-      </c>
-      <c r="E38">
-        <v>0.18</v>
-      </c>
-      <c r="F38">
-        <v>1.52</v>
-      </c>
-      <c r="G38">
-        <v>1.32</v>
-      </c>
-      <c r="H38">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D39">
-        <v>3598</v>
-      </c>
-      <c r="E39">
-        <v>0.125</v>
-      </c>
-      <c r="F39">
-        <v>1.47</v>
-      </c>
-      <c r="G39">
-        <v>1.18</v>
-      </c>
-      <c r="H39">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D40">
-        <v>3635</v>
-      </c>
-      <c r="E40">
-        <v>0.124</v>
-      </c>
-      <c r="F40">
-        <v>1.45</v>
-      </c>
-      <c r="G40">
-        <v>1.31</v>
-      </c>
-      <c r="H40">
-        <v>1.25</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2935,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,43 +2817,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,54 +2884,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D12">
-        <v>-126</v>
+        <v>-140</v>
       </c>
       <c r="E12">
-        <v>1.5680000000000001</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.54700000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D13">
-        <v>-120</v>
+        <v>-133</v>
       </c>
       <c r="E13">
-        <v>1.538</v>
+        <v>1.573</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>3.28</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,22 +2942,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>-103</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>1.4319999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3097,22 +2968,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.435</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D15">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E15">
-        <v>1.2230000000000001</v>
+        <v>1.143</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3123,22 +2994,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.40100000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D16">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E16">
-        <v>1.1279999999999999</v>
+        <v>1.133</v>
       </c>
       <c r="F16">
         <v>2.4300000000000002</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3149,178 +3020,178 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="D17">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17">
-        <v>1.054</v>
+        <v>1.036</v>
       </c>
       <c r="F17">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G17">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="H17">
-        <v>2.73</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>0.35</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D18">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E18">
-        <v>0.98399999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F18">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="G18">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="H18">
-        <v>2.65</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>0.34</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D19">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E19">
-        <v>0.95599999999999996</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="G19">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="H19">
-        <v>1.33</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="D20">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E20">
-        <v>0.88300000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F20">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.309</v>
       </c>
       <c r="D21">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E21">
-        <v>0.82499999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="F21">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="G21">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="H21">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.28100000000000003</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D22">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E22">
-        <v>0.79</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F22">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G22">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D23">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F23">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H23">
-        <v>2.0299999999999998</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3331,74 +3202,74 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="D24">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E24">
-        <v>0.69</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F24">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="H24">
-        <v>2.0299999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.23699999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D25">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E25">
-        <v>0.66700000000000004</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="F25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="H25">
-        <v>1.0900000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D26">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E26">
-        <v>0.66300000000000003</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F26">
         <v>1.93</v>
       </c>
       <c r="G26">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3409,152 +3280,152 @@
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="D27">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="E27">
-        <v>0.66300000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="F27">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G27">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H27">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.23200000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D28">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E28">
-        <v>0.65100000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="F28">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G28">
         <v>1.49</v>
       </c>
       <c r="H28">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D29">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="E29">
-        <v>0.59799999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="F29">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="H29">
-        <v>1.33</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="D30">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="E30">
-        <v>0.57599999999999996</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="F30">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G30">
-        <v>1.88</v>
+        <v>1.08</v>
       </c>
       <c r="H30">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>0.20300000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="D31">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="E31">
-        <v>0.57099999999999995</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="F31">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G31">
-        <v>1.1599999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="H31">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="D32">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E32">
-        <v>0.55700000000000005</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="F32">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G32">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="H32">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3565,48 +3436,48 @@
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="D33">
-        <v>413</v>
+        <v>560</v>
       </c>
       <c r="E33">
-        <v>0.54700000000000004</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="F33">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="G33">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="H33">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D34">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="E34">
-        <v>0.47499999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F34">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G34">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="H34">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,281 +3488,281 @@
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>0.155</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D35">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="E35">
-        <v>0.436</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F35">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="G35">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="H35">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>0.126</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D36">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="E36">
-        <v>0.35299999999999998</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="F36">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G36">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="H36">
-        <v>1.1200000000000001</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>0.11</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D37">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="E37">
-        <v>0.31</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="F37">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G37">
         <v>1.36</v>
       </c>
       <c r="H37">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>0.107</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D38">
-        <v>837</v>
+        <v>744</v>
       </c>
       <c r="E38">
-        <v>0.3</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F38">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G38">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="H38">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
       <c r="D39">
-        <v>858</v>
+        <v>795</v>
       </c>
       <c r="E39">
-        <v>0.29299999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="F39">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G39">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H39">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D40">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="E40">
-        <v>0.26700000000000002</v>
+        <v>0.253</v>
       </c>
       <c r="F40">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G40">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H40">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D41">
-        <v>1163</v>
+        <v>1015</v>
       </c>
       <c r="E41">
-        <v>0.222</v>
+        <v>0.247</v>
       </c>
       <c r="F41">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G41">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="H41">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>7.3999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D42">
-        <v>1253</v>
+        <v>1129</v>
       </c>
       <c r="E42">
-        <v>0.20799999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="F42">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G42">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="H42">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="D43">
-        <v>1649</v>
+        <v>1665</v>
       </c>
       <c r="E43">
-        <v>0.161</v>
+        <v>0.156</v>
       </c>
       <c r="F43">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G43">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H43">
         <v>1.33</v>
-      </c>
-      <c r="H43">
-        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D44">
-        <v>1872</v>
+        <v>1850</v>
       </c>
       <c r="E44">
-        <v>0.14199999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F44">
         <v>1.38</v>
       </c>
       <c r="G44">
-        <v>1.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H44">
-        <v>0.91</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3901,10 +3772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE6D6-9C95-3340-900D-F6BB0DB95F3F}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3914,48 +3785,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3966,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -3986,10 +3857,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>0.99</v>
@@ -3998,42 +3869,42 @@
         <v>-9899</v>
       </c>
       <c r="E12">
-        <v>1.6819999999999999</v>
+        <v>1.724</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.97299999999999998</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D13">
-        <v>-3656</v>
+        <v>-3080</v>
       </c>
       <c r="E13">
-        <v>1.6539999999999999</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>3.28</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4044,22 +3915,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.91100000000000003</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D14">
-        <v>-1027</v>
+        <v>-595</v>
       </c>
       <c r="E14">
-        <v>1.548</v>
+        <v>1.4910000000000001</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4070,22 +3941,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.78800000000000003</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="D15">
-        <v>-370</v>
+        <v>-260</v>
       </c>
       <c r="E15">
-        <v>1.3380000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4096,22 +3967,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="D16">
-        <v>-272</v>
+        <v>-252</v>
       </c>
       <c r="E16">
-        <v>1.2430000000000001</v>
+        <v>1.248</v>
       </c>
       <c r="F16">
         <v>2.4300000000000002</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4122,22 +3993,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D17">
-        <v>-221</v>
+        <v>-195</v>
       </c>
       <c r="E17">
-        <v>1.171</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="F17">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G17">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="H17">
-        <v>2.73</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4148,22 +4019,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D18">
-        <v>-183</v>
+        <v>-137</v>
       </c>
       <c r="E18">
-        <v>1.101</v>
+        <v>1.008</v>
       </c>
       <c r="F18">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="G18">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H18">
-        <v>2.65</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4174,53 +4045,53 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>0.63</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D19">
-        <v>-170</v>
+        <v>-136</v>
       </c>
       <c r="E19">
-        <v>1.071</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G19">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H19">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.58699999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D20">
-        <v>-142</v>
+        <v>-129</v>
       </c>
       <c r="E20">
-        <v>0.997</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="F20">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -4229,71 +4100,71 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="D21">
-        <v>-123</v>
+        <v>-124</v>
       </c>
       <c r="E21">
-        <v>0.94</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F21">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="G21">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="H21">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D22">
-        <v>-114</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>0.90600000000000003</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F22">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G22">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.51</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D23">
-        <v>-103</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>0.86599999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F23">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H23">
-        <v>2.0299999999999998</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4304,74 +4175,74 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D24">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E24">
-        <v>0.80600000000000005</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F24">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="H24">
-        <v>2.0299999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.46</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D25">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>0.78200000000000003</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="H25">
-        <v>1.0900000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D26">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E26">
-        <v>0.77800000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F26">
         <v>1.93</v>
       </c>
       <c r="G26">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4382,152 +4253,152 @@
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D27">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E27">
-        <v>0.77800000000000002</v>
+        <v>0.747</v>
       </c>
       <c r="F27">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G27">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H27">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.45100000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D28">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E28">
-        <v>0.76700000000000002</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="F28">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G28">
         <v>1.49</v>
       </c>
       <c r="H28">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D29">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29">
-        <v>0.71299999999999997</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="F29">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="H29">
-        <v>1.33</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>0.40699999999999997</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D30">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E30">
-        <v>0.69099999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="F30">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G30">
-        <v>1.88</v>
+        <v>1.08</v>
       </c>
       <c r="H30">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D31">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E31">
-        <v>0.68700000000000006</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F31">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G31">
-        <v>1.1599999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="H31">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.39600000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D32">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E32">
-        <v>0.67200000000000004</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="F32">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G32">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="H32">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4538,48 +4409,48 @@
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>0.39</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D33">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="E33">
-        <v>0.66300000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="F33">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="G33">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="H33">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D34">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="E34">
-        <v>0.59099999999999997</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="F34">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G34">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="H34">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4590,323 +4461,344 @@
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D35">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E35">
-        <v>0.55100000000000005</v>
+        <v>0.505</v>
       </c>
       <c r="F35">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="G35">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="H35">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>0.27500000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D36">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E36">
-        <v>0.46800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F36">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G36">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="H36">
-        <v>1.1200000000000001</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>0.251</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D37">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="E37">
-        <v>0.42599999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F37">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G37">
         <v>1.36</v>
       </c>
       <c r="H37">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="D38">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E38">
-        <v>0.41499999999999998</v>
+        <v>0.441</v>
       </c>
       <c r="F38">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G38">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="H38">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2">
-        <v>0.24</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D39">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E39">
-        <v>0.40899999999999997</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F39">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G39">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H39">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D40">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="E40">
-        <v>0.38300000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="F40">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G40">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H40">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
-        <v>0.19900000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D41">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="E41">
-        <v>0.33800000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F41">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G41">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="H41">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D42">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E42">
-        <v>0.32300000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="F42">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G42">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="H42">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2">
-        <v>0.16200000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="D43">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="E43">
-        <v>0.27600000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F43">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G43">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H43">
         <v>1.33</v>
-      </c>
-      <c r="H43">
-        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>0.152</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D44">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="E44">
-        <v>0.25800000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="F44">
         <v>1.38</v>
       </c>
       <c r="G44">
-        <v>1.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H44">
-        <v>0.91</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2">
-        <v>0.122</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D45">
-        <v>717</v>
+        <v>603</v>
       </c>
       <c r="E45">
-        <v>0.20799999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="F45">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G45">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H45">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D46">
+        <v>645</v>
+      </c>
+      <c r="E46">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F46">
+        <v>1.35</v>
+      </c>
+      <c r="G46">
+        <v>1.19</v>
+      </c>
+      <c r="H46">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2">
         <v>0.112</v>
       </c>
-      <c r="D46">
-        <v>793</v>
-      </c>
-      <c r="E46">
-        <v>0.19</v>
-      </c>
-      <c r="F46">
+      <c r="D47">
+        <v>789</v>
+      </c>
+      <c r="E47">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F47">
         <v>1.31</v>
       </c>
-      <c r="G46">
-        <v>1.08</v>
-      </c>
-      <c r="H46">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>64</v>
+      <c r="G47">
+        <v>1.38</v>
+      </c>
+      <c r="H47">
+        <v>0.92</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -4916,7 +4808,12 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4926,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4939,42 +4836,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5005,54 +4902,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>0.99</v>
       </c>
       <c r="D12">
-        <v>-9900</v>
+        <v>-9899</v>
       </c>
       <c r="E12">
-        <v>1.8839999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G12">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="H12">
-        <v>1.73</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.97099999999999997</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D13">
-        <v>-3394</v>
+        <v>-3768</v>
       </c>
       <c r="E13">
-        <v>1.849</v>
+        <v>1.889</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>3.28</v>
       </c>
       <c r="H13">
-        <v>2.78</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5063,22 +4960,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.91500000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D14">
-        <v>-1074</v>
+        <v>-663</v>
       </c>
       <c r="E14">
-        <v>1.7410000000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>1.96</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5089,22 +4986,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.80700000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
-        <v>-418</v>
+        <v>-300</v>
       </c>
       <c r="E15">
-        <v>1.536</v>
+        <v>1.454</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H15">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5115,22 +5012,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.75700000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="D16">
-        <v>-312</v>
+        <v>-294</v>
       </c>
       <c r="E16">
-        <v>1.4410000000000001</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="F16">
         <v>2.4300000000000002</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5141,178 +5038,178 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="D17">
-        <v>-252</v>
+        <v>-226</v>
       </c>
       <c r="E17">
-        <v>1.3640000000000001</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="F17">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G17">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="H17">
-        <v>2.73</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>0.68</v>
+        <v>0.623</v>
       </c>
       <c r="D18">
-        <v>-212</v>
+        <v>-165</v>
       </c>
       <c r="E18">
-        <v>1.294</v>
+        <v>1.208</v>
       </c>
       <c r="F18">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="G18">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="H18">
-        <v>2.65</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="D19">
-        <v>-201</v>
+        <v>-162</v>
       </c>
       <c r="E19">
-        <v>1.272</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="G19">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="H19">
-        <v>1.33</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.63</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D20">
-        <v>-170</v>
+        <v>-155</v>
       </c>
       <c r="E20">
-        <v>1.198</v>
+        <v>1.18</v>
       </c>
       <c r="F20">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D21">
-        <v>-148</v>
+        <v>-150</v>
       </c>
       <c r="E21">
-        <v>1.1379999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="F21">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="G21">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="H21">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.57899999999999996</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D22">
-        <v>-137</v>
+        <v>-113</v>
       </c>
       <c r="E22">
-        <v>1.103</v>
+        <v>1.032</v>
       </c>
       <c r="F22">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G22">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="D23">
-        <v>-126</v>
+        <v>-112</v>
       </c>
       <c r="E23">
-        <v>1.0620000000000001</v>
+        <v>1.028</v>
       </c>
       <c r="F23">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H23">
-        <v>2.0299999999999998</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5323,74 +5220,74 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D24">
-        <v>-111</v>
+        <v>-105</v>
       </c>
       <c r="E24">
-        <v>1.0009999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="F24">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="H24">
-        <v>2.0299999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.51700000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="D25">
-        <v>-106</v>
+        <v>-103</v>
       </c>
       <c r="E25">
-        <v>0.98299999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="H25">
-        <v>1.0900000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
-        <v>-105</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>0.97899999999999998</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F26">
         <v>1.93</v>
       </c>
       <c r="G26">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -5401,178 +5298,178 @@
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>0.51300000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D27">
-        <v>-105</v>
+        <v>105</v>
       </c>
       <c r="E27">
-        <v>0.97699999999999998</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="F27">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G27">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H27">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D28">
-        <v>-102</v>
+        <v>106</v>
       </c>
       <c r="E28">
-        <v>0.96199999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="F28">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="G28">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
-        <v>1.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D29">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29">
-        <v>0.91200000000000003</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F29">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G29">
-        <v>1.94</v>
+        <v>1.49</v>
       </c>
       <c r="H29">
-        <v>1.33</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>0.47</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D30">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30">
-        <v>0.89500000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="F30">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G30">
-        <v>2.4300000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="H30">
-        <v>0.72</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>0.46800000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D31">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31">
-        <v>0.89100000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F31">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G31">
-        <v>1.88</v>
+        <v>1.08</v>
       </c>
       <c r="H31">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D32">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E32">
-        <v>0.88100000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F32">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G32">
-        <v>1.1599999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="H32">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="D33">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E33">
-        <v>0.873</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="F33">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G33">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="H33">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5583,48 +5480,48 @@
         <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="D34">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="E34">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="F34">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="G34">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="H34">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="D35">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E35">
-        <v>0.78800000000000003</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F35">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G35">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="H35">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,230 +5532,230 @@
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>0.39400000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D36">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E36">
-        <v>0.75</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F36">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="G36">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="H36">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D37">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37">
-        <v>0.66700000000000004</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="F37">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G37">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="H37">
-        <v>1.1200000000000001</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D38">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E38">
-        <v>0.623</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="F38">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G38">
         <v>1.36</v>
       </c>
       <c r="H38">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>0.32200000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D39">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E39">
-        <v>0.61299999999999999</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="F39">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G39">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="H39">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>0.31900000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D40">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40">
-        <v>0.60699999999999998</v>
+        <v>0.621</v>
       </c>
       <c r="F40">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G40">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H40">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>0.30499999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D41">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E41">
-        <v>0.58099999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="F41">
         <v>1.52</v>
       </c>
       <c r="G41">
-        <v>1.32</v>
+        <v>0.82</v>
       </c>
       <c r="H41">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D42">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E42">
-        <v>0.56200000000000006</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F42">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G42">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="H42">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
-        <v>0.28100000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D43">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E43">
-        <v>0.53500000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="F43">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G43">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="H43">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D44">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E44">
-        <v>0.52100000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F44">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G44">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="H44">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5869,229 +5766,281 @@
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="D45">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E45">
-        <v>0.50800000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="F45">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G45">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="H45">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2">
-        <v>0.25</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D46">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E46">
-        <v>0.47599999999999998</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F46">
         <v>1.39</v>
       </c>
       <c r="G46">
-        <v>1.78</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H46">
-        <v>0.62</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
-        <v>0.249</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D47">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E47">
-        <v>0.47499999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="F47">
         <v>1.4</v>
       </c>
       <c r="G47">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="H47">
-        <v>1.1299999999999999</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>0.24</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D48">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E48">
-        <v>0.45700000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F48">
         <v>1.38</v>
       </c>
       <c r="G48">
-        <v>1.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H48">
-        <v>0.91</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2">
-        <v>0.215</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D49">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="E49">
-        <v>0.40799999999999997</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F49">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G49">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H49">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
       <c r="C50" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="D50">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E50">
-        <v>0.40300000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="F50">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G50">
+        <v>0.87</v>
+      </c>
+      <c r="H50">
         <v>1.6</v>
-      </c>
-      <c r="H50">
-        <v>0.68</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2">
-        <v>0.20399999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="D51">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="E51">
-        <v>0.38800000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="F51">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G51">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="H51">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2">
-        <v>0.2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D52">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E52">
-        <v>0.38200000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F52">
         <v>1.31</v>
       </c>
       <c r="G52">
-        <v>0.81</v>
+        <v>1.57</v>
       </c>
       <c r="H52">
-        <v>1.55</v>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D53">
+        <v>390</v>
+      </c>
+      <c r="E53">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F53">
+        <v>1.31</v>
+      </c>
+      <c r="G53">
+        <v>1.38</v>
+      </c>
+      <c r="H53">
+        <v>0.92</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="D54">
+        <v>418</v>
+      </c>
+      <c r="E54">
+        <v>0.374</v>
+      </c>
+      <c r="F54">
+        <v>1.3</v>
+      </c>
+      <c r="G54">
+        <v>0.89</v>
+      </c>
+      <c r="H54">
+        <v>1.44</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6101,456 +6050,473 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>36.770000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>36.15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>35.89</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>35.619999999999997</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>34.26</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>26.84</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>26.14</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="C10">
-        <v>25.69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C11">
-        <v>18.18</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C12">
-        <v>17.670000000000002</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>16.190000000000001</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>13.97</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>11.46</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C16">
-        <v>10.79</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C17">
-        <v>10.16</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C18">
-        <v>8.83</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C19">
-        <v>7.05</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C20">
-        <v>6.37</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C21">
-        <v>6.25</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C22">
-        <v>5.67</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C23">
-        <v>4.8099999999999996</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C24">
-        <v>4.12</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C25">
-        <v>2.59</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C26">
-        <v>2.46</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C27">
-        <v>2.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C29">
-        <v>0.62</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C30">
-        <v>0.37</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C31">
-        <v>-1.8</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C32">
-        <v>-3.89</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C33">
-        <v>-4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34">
-        <v>-5.82</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35">
-        <v>-6.29</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>30.56</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>30.37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>31.4</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>30.13</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>29.26</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>28.33</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>27.8</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>25.18</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,73 +6527,73 @@
         <v>23</v>
       </c>
       <c r="C45">
-        <v>24.39</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46">
-        <v>23.98</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>23.97</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>23.95</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>23.87</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>23.09</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>22.84</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -6638,106 +6604,106 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>22.81</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>22.75</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>22.53</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55">
-        <v>22.46</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>21.52</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>21.03</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>20.97</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>19.850000000000001</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>19.329999999999998</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>19.190000000000001</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -6748,18 +6714,18 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>19.09</v>
+        <v>18.690000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>18.98</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -6770,156 +6736,134 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>18.760000000000002</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>18.63</v>
+        <v>18.239999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>17.96</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C67">
-        <v>17.899999999999999</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>17.329999999999998</v>
+        <v>17.010000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>17.25</v>
+        <v>16.940000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>17.170000000000002</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71">
-        <v>17.059999999999999</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>16.399999999999999</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>16.309999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>16.21</v>
+        <v>16.170000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75">
-        <v>16.190000000000001</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76">
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="B77">
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B78">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80">
         <v>68</v>
       </c>
     </row>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE297C-169A-B642-85DE-E4F24059D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E94C1D-4716-1F4F-8097-E8DDF5042CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="3160" windowWidth="28220" windowHeight="16380" activeTab="4" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19960" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="179">
   <si>
     <t>Team</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>North Dakota St.</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
@@ -485,15 +482,9 @@
     <t>Pat</t>
   </si>
   <si>
-    <t>Colgate</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Total Auto Bids</t>
   </si>
   <si>
@@ -506,9 +497,6 @@
     <t>High Point</t>
   </si>
   <si>
-    <t>Purdue Fort Wayne</t>
-  </si>
-  <si>
     <t>Central Connecticut</t>
   </si>
   <si>
@@ -518,9 +506,6 @@
     <t>VCU</t>
   </si>
   <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
     <t>Akron</t>
   </si>
   <si>
@@ -530,12 +515,6 @@
     <t>Bryant</t>
   </si>
   <si>
-    <t>Texas A&amp;M Corpus Chr</t>
-  </si>
-  <si>
-    <t>Quinnipiac</t>
-  </si>
-  <si>
     <t>St. John's</t>
   </si>
   <si>
@@ -554,34 +533,52 @@
     <t>BYU</t>
   </si>
   <si>
-    <t>Number of teams meeting</t>
-  </si>
-  <si>
-    <t>criteria: 14</t>
-  </si>
-  <si>
     <t>Total probability sum:</t>
   </si>
   <si>
     <t>1.000 (target: 1)</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 17</t>
-  </si>
-  <si>
-    <t>Number of teams meeting criteria: 26</t>
-  </si>
-  <si>
     <t>Number of teams meeting criteria: 36</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 43</t>
-  </si>
-  <si>
     <t>Total probability sum: 19.260 (target: 32)</t>
   </si>
   <si>
     <t>Total probability sum: 15.219 (target: 16)</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 20</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 28</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 44</t>
+  </si>
+  <si>
+    <t>South Dakota St.</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M Corpus Chris</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 13</t>
   </si>
 </sst>
 </file>
@@ -967,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC26E8-D6C2-0E4A-830A-7AA78E1502E8}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,10 +1008,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1051,22 +1045,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>0.155</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D11">
-        <v>546</v>
+        <v>453</v>
       </c>
       <c r="E11">
-        <v>1.24</v>
+        <v>1.236</v>
       </c>
       <c r="F11">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="G11">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="H11">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1077,22 +1071,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="D12">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="E12">
-        <v>1.161</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="F12">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="G12">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="H12">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1103,19 +1097,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.112</v>
+        <v>0.152</v>
       </c>
       <c r="D13">
-        <v>793</v>
+        <v>556</v>
       </c>
       <c r="E13">
-        <v>0.89700000000000002</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="F13">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G13">
-        <v>2.0099999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
         <v>2.83</v>
@@ -1129,310 +1123,284 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D14">
-        <v>984</v>
+        <v>883</v>
       </c>
       <c r="E14">
-        <v>0.73799999999999999</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F14">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G14">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H14">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>8.6999999999999994E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>1044</v>
+        <v>1117</v>
       </c>
       <c r="E15">
-        <v>0.69899999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="F15">
-        <v>2.4500000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="G15">
-        <v>2.0499999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H15">
-        <v>2.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="D16">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="E16">
-        <v>0.55300000000000005</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F16">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="G16">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="H16">
-        <v>2.5499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D17">
-        <v>1396</v>
+        <v>1428</v>
       </c>
       <c r="E17">
-        <v>0.53500000000000003</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F17">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="G17">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="H17">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D18">
-        <v>1665</v>
+        <v>1809</v>
       </c>
       <c r="E18">
-        <v>0.45400000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F18">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G18">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="H18">
-        <v>1.63</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D19">
-        <v>1818</v>
+        <v>2180</v>
       </c>
       <c r="E19">
-        <v>0.41699999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="G19">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="H19">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D20">
-        <v>2346</v>
+        <v>2498</v>
       </c>
       <c r="E20">
-        <v>0.32700000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F20">
         <v>1.98</v>
       </c>
       <c r="G20">
-        <v>2.0699999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="H20">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>3.9E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D21">
-        <v>2432</v>
+        <v>3235</v>
       </c>
       <c r="E21">
-        <v>0.316</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F21">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="G21">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="H21">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>3.1E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D22">
-        <v>3112</v>
+        <v>3590</v>
       </c>
       <c r="E22">
-        <v>0.249</v>
+        <v>0.185</v>
       </c>
       <c r="F22">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="G22">
         <v>1.69</v>
       </c>
       <c r="H22">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>2.7E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D23">
-        <v>3611</v>
+        <v>31593</v>
       </c>
       <c r="E23">
-        <v>0.216</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H23">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D24">
-        <v>3783</v>
-      </c>
-      <c r="E24">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1.9</v>
-      </c>
-      <c r="G24">
-        <v>1.7</v>
-      </c>
-      <c r="H24">
-        <v>1.68</v>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D92530-17DC-CB45-8C20-9976A35F4891}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1453,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1527,22 +1495,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D12">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E12">
-        <v>1.3540000000000001</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="H12">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1553,22 +1521,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="D13">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="E13">
-        <v>1.24</v>
+        <v>1.135</v>
       </c>
       <c r="F13">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="G13">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="H13">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1579,19 +1547,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.19</v>
+        <v>0.218</v>
       </c>
       <c r="D14">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="E14">
-        <v>0.96599999999999997</v>
+        <v>1.117</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G14">
-        <v>2.0099999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
         <v>2.83</v>
@@ -1605,410 +1573,462 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.16400000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="D15">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="E15">
-        <v>0.83299999999999996</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F15">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H15">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.154</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D16">
-        <v>550</v>
+        <v>665</v>
       </c>
       <c r="E16">
-        <v>0.77900000000000003</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F16">
-        <v>2.4500000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="G16">
-        <v>2.0499999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H16">
-        <v>2.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="D17">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="E17">
-        <v>0.64100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="F17">
-        <v>2.17</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G17">
-        <v>2.46</v>
+        <v>1.32</v>
       </c>
       <c r="H17">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>0.122</v>
+        <v>0.111</v>
       </c>
       <c r="D18">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="E18">
-        <v>0.62</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F18">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="G18">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="H18">
-        <v>2.5499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="D19">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="E19">
-        <v>0.54700000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="F19">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G19">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="H19">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D20">
-        <v>926</v>
+        <v>1063</v>
       </c>
       <c r="E20">
-        <v>0.49399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="F20">
         <v>2.16</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="H20">
-        <v>2.12</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D21">
-        <v>1014</v>
+        <v>1076</v>
       </c>
       <c r="E21">
-        <v>0.45500000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="F21">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="G21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>2.5499999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>8.4000000000000005E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D22">
-        <v>1096</v>
+        <v>1219</v>
       </c>
       <c r="E22">
-        <v>0.42399999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F22">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G22">
-        <v>2.0699999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="H22">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.08</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D23">
-        <v>1143</v>
+        <v>1395</v>
       </c>
       <c r="E23">
-        <v>0.40799999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F23">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="H23">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D24">
-        <v>1432</v>
+        <v>1622</v>
       </c>
       <c r="E24">
-        <v>0.33100000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G24">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D25">
-        <v>1619</v>
+        <v>1669</v>
       </c>
       <c r="E25">
-        <v>0.29499999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G25">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H25">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D26">
-        <v>1647</v>
+        <v>1722</v>
       </c>
       <c r="E26">
-        <v>0.28999999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F26">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G26">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H26">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D27">
-        <v>1937</v>
+        <v>1794</v>
       </c>
       <c r="E27">
-        <v>0.249</v>
+        <v>0.27</v>
       </c>
       <c r="F27">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G27">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="H27">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>2216</v>
+        <v>1886</v>
       </c>
       <c r="E28">
-        <v>0.219</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F28">
         <v>1.89</v>
       </c>
       <c r="G28">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="H28">
-        <v>2.0499999999999998</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D29">
-        <v>2577</v>
+        <v>3126</v>
       </c>
       <c r="E29">
-        <v>0.20300000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="F29">
+        <v>1.79</v>
+      </c>
+      <c r="G29">
+        <v>1.44</v>
+      </c>
+      <c r="H29">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D30">
+        <v>3193</v>
+      </c>
+      <c r="E30">
+        <v>0.155</v>
+      </c>
+      <c r="F30">
         <v>1.81</v>
       </c>
-      <c r="G29">
-        <v>1.6</v>
-      </c>
-      <c r="H29">
-        <v>1.61</v>
+      <c r="G30">
+        <v>1.36</v>
+      </c>
+      <c r="H30">
+        <v>1.89</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>4547</v>
+      </c>
+      <c r="E31">
+        <v>0.11</v>
+      </c>
+      <c r="F31">
+        <v>1.72</v>
+      </c>
+      <c r="G31">
+        <v>1.46</v>
+      </c>
+      <c r="H31">
+        <v>1.61</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2019,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,7 +2082,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2104,22 +2124,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.36</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D12">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="E12">
-        <v>1.5509999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="H12">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2130,22 +2150,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.35</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D13">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E13">
-        <v>1.508</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="F13">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="G13">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="H13">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2156,19 +2176,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D14">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E14">
-        <v>1.2529999999999999</v>
+        <v>1.395</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G14">
-        <v>2.0099999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
         <v>2.83</v>
@@ -2182,152 +2202,152 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.248</v>
+        <v>0.218</v>
       </c>
       <c r="D15">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="E15">
-        <v>1.069</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="F15">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H15">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D16">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="E16">
-        <v>1.0449999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F16">
         <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>2.0499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="H16">
-        <v>2.31</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="D17">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E17">
-        <v>0.91100000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="F17">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H17">
-        <v>2.5499999999999998</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D18">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="E18">
-        <v>0.85399999999999998</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F18">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="G18">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="H18">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>0.182</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D19">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="E19">
-        <v>0.78400000000000003</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="F19">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G19">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="H19">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.17799999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="E20">
-        <v>0.76500000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="H20">
-        <v>2.12</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2338,462 +2358,514 @@
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.17599999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="D21">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="E21">
-        <v>0.75600000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F21">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="G21">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H21">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E22">
-        <v>0.65500000000000003</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="F22">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="G22">
+        <v>1.67</v>
+      </c>
+      <c r="H22">
         <v>2.0699999999999998</v>
-      </c>
-      <c r="H22">
-        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.151</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D23">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="E23">
-        <v>0.64900000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F23">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G23">
-        <v>1.96</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H23">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.13700000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D24">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E24">
-        <v>0.59199999999999997</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G24">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="D25">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E25">
-        <v>0.56100000000000005</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G25">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="H25">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.127</v>
+        <v>0.123</v>
       </c>
       <c r="D26">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="E26">
-        <v>0.54600000000000004</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F26">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G26">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="H26">
-        <v>1.68</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.127</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D27">
-        <v>689</v>
+        <v>758</v>
       </c>
       <c r="E27">
-        <v>0.54500000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="F27">
+        <v>1.92</v>
+      </c>
+      <c r="G27">
+        <v>1.57</v>
+      </c>
+      <c r="H27">
         <v>1.86</v>
-      </c>
-      <c r="G27">
-        <v>2.02</v>
-      </c>
-      <c r="H27">
-        <v>1.24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>0.121</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D28">
-        <v>724</v>
+        <v>763</v>
       </c>
       <c r="E28">
-        <v>0.52200000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="F28">
         <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H28">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="D29">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="E29">
-        <v>0.502</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G29">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="H29">
-        <v>2.0499999999999998</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>0.108</v>
+        <v>0.111</v>
       </c>
       <c r="D30">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="E30">
-        <v>0.46400000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="F30">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="G30">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="H30">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D31">
-        <v>1224</v>
+        <v>869</v>
       </c>
       <c r="E31">
-        <v>0.32500000000000001</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="F31">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="H31">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D32">
-        <v>1327</v>
+        <v>988</v>
       </c>
       <c r="E32">
-        <v>0.30199999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="F32">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="G32">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="H32">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D33">
-        <v>1415</v>
+        <v>1000</v>
       </c>
       <c r="E33">
-        <v>0.28399999999999997</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F33">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="G33">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H33">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>6.2E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D34">
-        <v>1510</v>
+        <v>1163</v>
       </c>
       <c r="E34">
-        <v>0.26700000000000002</v>
+        <v>0.373</v>
       </c>
       <c r="F34">
+        <v>1.72</v>
+      </c>
+      <c r="G34">
+        <v>1.46</v>
+      </c>
+      <c r="H34">
         <v>1.61</v>
-      </c>
-      <c r="G34">
-        <v>1.36</v>
-      </c>
-      <c r="H34">
-        <v>1.52</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D35">
-        <v>1818</v>
+        <v>1216</v>
       </c>
       <c r="E35">
-        <v>0.224</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F35">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="G35">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="H35">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D36">
-        <v>2596</v>
+        <v>1354</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F36">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="G36">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="H36">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.03</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D37">
-        <v>3183</v>
+        <v>1381</v>
       </c>
       <c r="E37">
-        <v>0.13100000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="F37">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="G37">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H37">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D38">
+        <v>1400</v>
+      </c>
+      <c r="E38">
+        <v>0.314</v>
+      </c>
+      <c r="F38">
+        <v>1.65</v>
+      </c>
+      <c r="G38">
+        <v>1.48</v>
+      </c>
+      <c r="H38">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D39">
+        <v>2320</v>
+      </c>
+      <c r="E39">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.55</v>
+      </c>
+      <c r="G39">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.62</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2806,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A44"/>
     </sheetView>
   </sheetViews>
@@ -2884,106 +2956,106 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D12">
-        <v>-140</v>
+        <v>-123</v>
       </c>
       <c r="E12">
-        <v>1.6080000000000001</v>
+        <v>1.577</v>
       </c>
       <c r="F12">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
-        <v>2.46</v>
+        <v>3.24</v>
       </c>
       <c r="H12">
-        <v>2.79</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D13">
-        <v>-133</v>
+        <v>-112</v>
       </c>
       <c r="E13">
-        <v>1.573</v>
+        <v>1.506</v>
       </c>
       <c r="F13">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G13">
-        <v>3.28</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
-        <v>1.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>0.5</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>-111</v>
       </c>
       <c r="E14">
-        <v>1.375</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="G14">
-        <v>2.0099999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="H14">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D15">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E15">
-        <v>1.143</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F15">
         <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.0499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="H15">
-        <v>2.31</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2994,209 +3066,209 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.41199999999999998</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D16">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E16">
-        <v>1.133</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H16">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.376</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D17">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="E17">
-        <v>1.036</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="F17">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H17">
-        <v>2.5499999999999998</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D18">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E18">
-        <v>0.89200000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F18">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G18">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="H18">
-        <v>1.34</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E19">
-        <v>0.89200000000000002</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F19">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
-        <v>2.5499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>0.316</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D20">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E20">
-        <v>0.86799999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="H20">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.309</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D21">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E21">
-        <v>0.84899999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="F21">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G21">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>1.63</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D22">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E22">
-        <v>0.71799999999999997</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F22">
-        <v>1.99</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="H22">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="D23">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E23">
-        <v>0.71299999999999997</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F23">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G23">
-        <v>2.0699999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="H23">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -3205,253 +3277,253 @@
         <v>0.248</v>
       </c>
       <c r="D24">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E24">
-        <v>0.68300000000000005</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G24">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="D25">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E25">
-        <v>0.67100000000000004</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G25">
-        <v>2.37</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H25">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.23899999999999999</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D26">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E26">
-        <v>0.65700000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="F26">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G26">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="H26">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.23</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D27">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E27">
-        <v>0.63200000000000001</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F27">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H27">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>0.22800000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="D28">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="E28">
-        <v>0.627</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F28">
         <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H28">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="D29">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E29">
-        <v>0.61799999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="F29">
         <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="H29">
-        <v>2.0499999999999998</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>0.222</v>
+        <v>0.214</v>
       </c>
       <c r="D30">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E30">
-        <v>0.61099999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F30">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G30">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="H30">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>0.217</v>
+        <v>0.191</v>
       </c>
       <c r="D31">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="E31">
-        <v>0.59799999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F31">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="H31">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E32">
-        <v>0.52700000000000002</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F32">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G32">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="H32">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>0.151</v>
+        <v>0.185</v>
       </c>
       <c r="D33">
-        <v>560</v>
+        <v>439</v>
       </c>
       <c r="E33">
-        <v>0.41699999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F33">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="G33">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H33">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,48 +3534,48 @@
         <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.14599999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D34">
-        <v>585</v>
+        <v>478</v>
       </c>
       <c r="E34">
-        <v>0.40200000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="F34">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="G34">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="H34">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D35">
-        <v>607</v>
+        <v>511</v>
       </c>
       <c r="E35">
-        <v>0.38900000000000001</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="F35">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G35">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H35">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3514,230 +3586,230 @@
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="D36">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="E36">
-        <v>0.36899999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="F36">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G36">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="H36">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.13100000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D37">
-        <v>663</v>
+        <v>565</v>
       </c>
       <c r="E37">
-        <v>0.36099999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F37">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="G37">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="H37">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D38">
-        <v>744</v>
+        <v>611</v>
       </c>
       <c r="E38">
-        <v>0.32600000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F38">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G38">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="H38">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>0.112</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D39">
-        <v>795</v>
+        <v>613</v>
       </c>
       <c r="E39">
-        <v>0.307</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F39">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="G39">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H39">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.121</v>
       </c>
       <c r="D40">
-        <v>987</v>
+        <v>728</v>
       </c>
       <c r="E40">
-        <v>0.253</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F40">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G40">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="H40">
-        <v>1.42</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="D41">
-        <v>1015</v>
+        <v>848</v>
       </c>
       <c r="E41">
-        <v>0.247</v>
+        <v>0.3</v>
       </c>
       <c r="F41">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G41">
-        <v>1.65</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H41">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D42">
-        <v>1129</v>
+        <v>903</v>
       </c>
       <c r="E42">
-        <v>0.224</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F42">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G42">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="H42">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D43">
-        <v>1665</v>
+        <v>908</v>
       </c>
       <c r="E43">
-        <v>0.156</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F43">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="G43">
-        <v>1.1599999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>1.33</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D44">
-        <v>1850</v>
+        <v>1809</v>
       </c>
       <c r="E44">
-        <v>0.14099999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F44">
         <v>1.38</v>
       </c>
       <c r="G44">
-        <v>1.1200000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H44">
-        <v>1.34</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3774,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE6D6-9C95-3340-900D-F6BB0DB95F3F}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3887,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3857,106 +3929,106 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.99</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D12">
-        <v>-9899</v>
+        <v>-12810</v>
       </c>
       <c r="E12">
-        <v>1.724</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="F12">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
-        <v>2.46</v>
+        <v>3.24</v>
       </c>
       <c r="H12">
-        <v>2.79</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.96899999999999997</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D13">
-        <v>-3080</v>
+        <v>-1972</v>
       </c>
       <c r="E13">
-        <v>1.6870000000000001</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="F13">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G13">
-        <v>3.28</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
-        <v>1.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>0.85599999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="D14">
-        <v>-595</v>
+        <v>-1881</v>
       </c>
       <c r="E14">
-        <v>1.4910000000000001</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="G14">
-        <v>2.0099999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="H14">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="D15">
-        <v>-260</v>
+        <v>-270</v>
       </c>
       <c r="E15">
-        <v>1.258</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="F15">
         <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.0499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="H15">
-        <v>2.31</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3967,48 +4039,48 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="D16">
-        <v>-252</v>
+        <v>-248</v>
       </c>
       <c r="E16">
-        <v>1.248</v>
+        <v>1.216</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H16">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D17">
-        <v>-195</v>
+        <v>-152</v>
       </c>
       <c r="E17">
-        <v>1.1519999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="F17">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H17">
-        <v>2.5499999999999998</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4019,412 +4091,412 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.57899999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D18">
-        <v>-137</v>
+        <v>-134</v>
       </c>
       <c r="E18">
-        <v>1.008</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F18">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="G18">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H18">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.57799999999999996</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D19">
-        <v>-136</v>
+        <v>-131</v>
       </c>
       <c r="E19">
-        <v>1.0069999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F19">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>0.56499999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D20">
-        <v>-129</v>
+        <v>-123</v>
       </c>
       <c r="E20">
-        <v>0.98399999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="H20">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D21">
-        <v>-124</v>
+        <v>-118</v>
       </c>
       <c r="E21">
-        <v>0.96399999999999997</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F21">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G21">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>1.63</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D22">
-        <v>109</v>
+        <v>-112</v>
       </c>
       <c r="E22">
-        <v>0.83299999999999996</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="F22">
-        <v>1.99</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="H22">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D23">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23">
-        <v>0.82799999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="F23">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G23">
-        <v>2.0699999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="H23">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D24">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>0.79900000000000004</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G24">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.45100000000000001</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D25">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E25">
-        <v>0.78600000000000003</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G25">
-        <v>2.37</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H25">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D26">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E26">
-        <v>0.77300000000000002</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="F26">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G26">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="H26">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.42899999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D27">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E27">
-        <v>0.747</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F27">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H27">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="D28">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E28">
-        <v>0.74299999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="F28">
         <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H28">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="D29">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E29">
-        <v>0.73499999999999999</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="F29">
         <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="H29">
-        <v>2.0499999999999998</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D30">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30">
-        <v>0.72799999999999998</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="F30">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G30">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="H30">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>0.40899999999999997</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D31">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E31">
-        <v>0.71299999999999997</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="F31">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="H31">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.36799999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D32">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E32">
-        <v>0.64200000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F32">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G32">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="H32">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="D33">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="E33">
-        <v>0.53300000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F33">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="G33">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H33">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4435,48 +4507,48 @@
         <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D34">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="E34">
-        <v>0.51700000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="F34">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="G34">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="H34">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D35">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E35">
-        <v>0.505</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="F35">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G35">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H35">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4487,308 +4559,308 @@
         <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D36">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="E36">
-        <v>0.48499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F36">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G36">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="H36">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D37">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="E37">
-        <v>0.47599999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F37">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="G37">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="H37">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>0.253</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D38">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E38">
-        <v>0.441</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F38">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G38">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="H38">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D39">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="E39">
-        <v>0.42299999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F39">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="G39">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H39">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="D40">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="E40">
-        <v>0.36899999999999999</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F40">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G40">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="H40">
-        <v>1.42</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D41">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="E41">
-        <v>0.36199999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="F41">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G41">
-        <v>1.65</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H41">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D42">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="E42">
-        <v>0.34</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F42">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G42">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="H42">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
-        <v>0.156</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D43">
-        <v>541</v>
+        <v>328</v>
       </c>
       <c r="E43">
-        <v>0.27200000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="F43">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="G43">
-        <v>1.1599999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>1.33</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D44">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="E44">
-        <v>0.25700000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F44">
         <v>1.38</v>
       </c>
       <c r="G44">
-        <v>1.1200000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H44">
-        <v>1.34</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="2">
-        <v>0.14199999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D45">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="E45">
-        <v>0.247</v>
+        <v>0.251</v>
       </c>
       <c r="F45">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G45">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="H45">
-        <v>0.81</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D46">
-        <v>645</v>
+        <v>597</v>
       </c>
       <c r="E46">
-        <v>0.23400000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F46">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G46">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2">
-        <v>0.112</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D47">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="E47">
-        <v>0.19600000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F47">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G47">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H47">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -4813,7 +4885,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4866,7 +4938,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4902,10 +4974,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>0.99</v>
@@ -4914,94 +4986,94 @@
         <v>-9899</v>
       </c>
       <c r="E12">
-        <v>1.92</v>
+        <v>1.893</v>
       </c>
       <c r="F12">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
-        <v>2.46</v>
+        <v>3.24</v>
       </c>
       <c r="H12">
-        <v>2.79</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.97399999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="D13">
-        <v>-3768</v>
+        <v>-1906</v>
       </c>
       <c r="E13">
-        <v>1.889</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="F13">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G13">
-        <v>3.28</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
-        <v>1.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>0.86899999999999999</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D14">
-        <v>-663</v>
+        <v>-1849</v>
       </c>
       <c r="E14">
-        <v>1.6850000000000001</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="G14">
-        <v>2.0099999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="H14">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="D15">
-        <v>-300</v>
+        <v>-301</v>
       </c>
       <c r="E15">
-        <v>1.454</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="F15">
         <v>2.4500000000000002</v>
       </c>
       <c r="G15">
-        <v>2.0499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="H15">
-        <v>2.31</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5012,620 +5084,620 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.746</v>
+        <v>0.74</v>
       </c>
       <c r="D16">
-        <v>-294</v>
+        <v>-283</v>
       </c>
       <c r="E16">
-        <v>1.4470000000000001</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="F16">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H16">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D17">
-        <v>-226</v>
+        <v>-181</v>
       </c>
       <c r="E17">
-        <v>1.3460000000000001</v>
+        <v>1.232</v>
       </c>
       <c r="F17">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H17">
-        <v>2.5499999999999998</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.623</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D18">
-        <v>-165</v>
+        <v>-158</v>
       </c>
       <c r="E18">
-        <v>1.208</v>
+        <v>1.173</v>
       </c>
       <c r="F18">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G18">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="H18">
-        <v>1.34</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.62</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D19">
-        <v>-162</v>
+        <v>-157</v>
       </c>
       <c r="E19">
-        <v>1.2010000000000001</v>
+        <v>1.169</v>
       </c>
       <c r="F19">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
-        <v>2.5499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D20">
-        <v>-155</v>
+        <v>-148</v>
       </c>
       <c r="E20">
-        <v>1.18</v>
+        <v>1.143</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="H20">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.6</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D21">
-        <v>-150</v>
+        <v>-141</v>
       </c>
       <c r="E21">
-        <v>1.1639999999999999</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="F21">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G21">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>1.63</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.53200000000000003</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D22">
-        <v>-113</v>
+        <v>-136</v>
       </c>
       <c r="E22">
-        <v>1.032</v>
+        <v>1.103</v>
       </c>
       <c r="F22">
-        <v>1.99</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="H22">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>0.53</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D23">
-        <v>-112</v>
+        <v>-116</v>
       </c>
       <c r="E23">
-        <v>1.028</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="F23">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G23">
-        <v>2.0699999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="H23">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.51300000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D24">
-        <v>-105</v>
+        <v>-114</v>
       </c>
       <c r="E24">
-        <v>0.996</v>
+        <v>1.022</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G24">
-        <v>1.69</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.51</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D25">
-        <v>-103</v>
+        <v>-114</v>
       </c>
       <c r="E25">
-        <v>0.98799999999999999</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G25">
-        <v>2.37</v>
+        <v>1.64</v>
       </c>
       <c r="H25">
-        <v>0.99</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.5</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>-109</v>
       </c>
       <c r="E26">
-        <v>0.96899999999999997</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F26">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G26">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="H26">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="D27">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="E27">
-        <v>0.94499999999999995</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F27">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H27">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="D28">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E28">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="F28">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G28">
-        <v>2.5</v>
+        <v>0.85</v>
       </c>
       <c r="H28">
-        <v>0.75</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D29">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E29">
-        <v>0.93899999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F29">
         <v>1.9</v>
       </c>
       <c r="G29">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="H29">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D30">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E30">
-        <v>0.93</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F30">
         <v>1.89</v>
       </c>
       <c r="G30">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="H30">
-        <v>2.0499999999999998</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>0.47499999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D31">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31">
-        <v>0.92100000000000004</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F31">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G31">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="H31">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.47099999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D32">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E32">
-        <v>0.91300000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="F32">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>2.02</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H32">
-        <v>1.24</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>0.434</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D33">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E33">
-        <v>0.84099999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F33">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G33">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="H33">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>0.376</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D34">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E34">
-        <v>0.73</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F34">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="G34">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="H34">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="D35">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E35">
-        <v>0.71699999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="F35">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="G35">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="H35">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D36">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E36">
-        <v>0.70199999999999996</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F36">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="G36">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="H36">
-        <v>1.48</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.35199999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D37">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="E37">
-        <v>0.68200000000000005</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="F37">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="G37">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H37">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>0.34699999999999998</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D38">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E38">
-        <v>0.67300000000000004</v>
+        <v>0.748</v>
       </c>
       <c r="F38">
+        <v>1.69</v>
+      </c>
+      <c r="G38">
         <v>1.61</v>
       </c>
-      <c r="G38">
-        <v>1.36</v>
-      </c>
       <c r="H38">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D39">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E39">
-        <v>0.64100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="F39">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="G39">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="H39">
-        <v>0.99</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5636,360 +5708,360 @@
         <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>0.32</v>
+        <v>0.374</v>
       </c>
       <c r="D40">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E40">
-        <v>0.621</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F40">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="G40">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="H40">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="D41">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E41">
-        <v>0.57799999999999996</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F41">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="G41">
-        <v>0.82</v>
+        <v>1.48</v>
       </c>
       <c r="H41">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D42">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="E42">
-        <v>0.56599999999999995</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="F42">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G42">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="H42">
-        <v>1.42</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D43">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E43">
-        <v>0.56200000000000006</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="F43">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G43">
-        <v>1.65</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H43">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>0.27700000000000002</v>
+        <v>0.314</v>
       </c>
       <c r="D44">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E44">
-        <v>0.53700000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="F44">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G44">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="H44">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <v>0.27</v>
+        <v>0.312</v>
       </c>
       <c r="D45">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="E45">
-        <v>0.52400000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F45">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="G45">
-        <v>0.76</v>
+        <v>1.6</v>
       </c>
       <c r="H45">
-        <v>1.9</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D46">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="E46">
-        <v>0.46899999999999997</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F46">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="G46">
-        <v>1.1599999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H46">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D47">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E47">
-        <v>0.46800000000000003</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F47">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G47">
-        <v>0.78</v>
+        <v>1.3</v>
       </c>
       <c r="H47">
-        <v>1.77</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D48">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E48">
-        <v>0.45400000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="F48">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G48">
-        <v>1.1200000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H48">
-        <v>1.34</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
         <v>0.23100000000000001</v>
       </c>
       <c r="D49">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E49">
-        <v>0.44800000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="F49">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G49">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="H49">
-        <v>0.81</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
-        <v>0.224</v>
+        <v>0.23</v>
       </c>
       <c r="D50">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E50">
-        <v>0.435</v>
+        <v>0.441</v>
       </c>
       <c r="F50">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G50">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2">
-        <v>0.223</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D51">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="E51">
-        <v>0.432</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F51">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="G51">
-        <v>1.19</v>
+        <v>1.61</v>
       </c>
       <c r="H51">
-        <v>1.21</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2">
-        <v>0.20599999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D52">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E52">
-        <v>0.4</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F52">
         <v>1.31</v>
       </c>
       <c r="G52">
-        <v>1.57</v>
+        <v>0.81</v>
       </c>
       <c r="H52">
-        <v>0.72</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C53" s="2">
-        <v>0.20399999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D53">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="E53">
-        <v>0.39500000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="F53">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G53">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H53">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -6000,47 +6072,73 @@
         <v>23</v>
       </c>
       <c r="C54" s="2">
-        <v>0.193</v>
+        <v>0.184</v>
       </c>
       <c r="D54">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E54">
-        <v>0.374</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="F54">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G54">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="H54">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>60</v>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D55">
+        <v>878</v>
+      </c>
+      <c r="E55">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.86</v>
+      </c>
+      <c r="H55">
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6052,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6076,35 +6174,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>36.770000000000003</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>36.15</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>33.69</v>
+        <v>35.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6112,10 +6210,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>26.91</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6126,7 +6224,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>24.15</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6134,32 +6232,32 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="C8">
-        <v>24.08</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="C9">
-        <v>17.2</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6167,10 +6265,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C11">
-        <v>16.559999999999999</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6178,10 +6276,10 @@
         <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C12">
-        <v>14.31</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6192,40 +6290,40 @@
         <v>119</v>
       </c>
       <c r="C13">
-        <v>11.25</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14">
-        <v>11.09</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15">
-        <v>10.46</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C16">
-        <v>10.35</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6236,40 +6334,40 @@
         <v>128</v>
       </c>
       <c r="C17">
-        <v>7.68</v>
+        <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C18">
-        <v>7.52</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C19">
-        <v>6.22</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>6.11</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6280,139 +6378,139 @@
         <v>130</v>
       </c>
       <c r="C21">
-        <v>4.72</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C22">
-        <v>4.4400000000000004</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23">
-        <v>2.71</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C24">
-        <v>2.4700000000000002</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C25">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C26">
-        <v>1.0900000000000001</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C27">
-        <v>0.08</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
         <v>137</v>
       </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
       <c r="C28">
-        <v>-0.01</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C29">
-        <v>-1.3</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C30">
-        <v>-3.94</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31">
-        <v>-4.26</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C32">
-        <v>-4.43</v>
+        <v>-4.6900000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C33">
-        <v>-4.51</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6433,13 +6531,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>30.56</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -6450,18 +6548,18 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>30.37</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>29.18</v>
+        <v>27.54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -6472,370 +6570,370 @@
         <v>15</v>
       </c>
       <c r="C40">
-        <v>27.28</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>27.11</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>26.59</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>24.84</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>24.76</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>24.42</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>23.73</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>23.7</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>23.6</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49">
-        <v>23.55</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>23.47</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>23.22</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>22.28</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>20.87</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>20.6</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>20.49</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>20.22</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57">
-        <v>20.12</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>19.59</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>19.39</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>19.13</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>18.95</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C62">
-        <v>18.690000000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>18.54</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>18.3</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C65">
-        <v>18.239999999999998</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>17.47</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>17.39</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>17.010000000000002</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>16.940000000000001</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>16.88</v>
+        <v>16.170000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>16.36</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>16.34</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C73">
-        <v>16.170000000000002</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -6845,7 +6943,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76">
         <v>31</v>
@@ -6853,7 +6951,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77">
         <v>37</v>
@@ -6861,7 +6959,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B78">
         <v>68</v>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E94C1D-4716-1F4F-8097-E8DDF5042CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3CD7D5-F26F-8A41-B9EC-4BCACC528083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19960" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="5" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="179">
   <si>
     <t>Team</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Ohio St.</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t xml:space="preserve">  AdjEM z-score &gt; 1.38</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 33</t>
-  </si>
-  <si>
     <t>Teams meeting Elite Eight criteria (sorted by probability):</t>
   </si>
   <si>
@@ -524,9 +512,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
     <t>SMU</t>
   </si>
   <si>
@@ -539,18 +524,12 @@
     <t>1.000 (target: 1)</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 36</t>
-  </si>
-  <si>
     <t>Total probability sum: 19.260 (target: 32)</t>
   </si>
   <si>
     <t>Total probability sum: 15.219 (target: 16)</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 20</t>
-  </si>
-  <si>
     <t>Number of teams meeting criteria: 28</t>
   </si>
   <si>
@@ -575,10 +554,31 @@
     <t>Merrimack</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Number of teams meeting criteria: 13</t>
+    <t>Number of teams meeting criteria: 17</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 11</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 34</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 42</t>
   </si>
 </sst>
 </file>
@@ -964,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC26E8-D6C2-0E4A-830A-7AA78E1502E8}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,38 +977,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,54 +1039,54 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>0.18099999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D11">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E11">
-        <v>1.236</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="F11">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="G11">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="H11">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.154</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D12">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="E12">
-        <v>1.0549999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="F12">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="G12">
-        <v>2.37</v>
+        <v>3.09</v>
       </c>
       <c r="H12">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,22 +1097,22 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>0.152</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D13">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="E13">
-        <v>1.0429999999999999</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G13">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="H13">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1123,22 +1123,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="D14">
-        <v>883</v>
+        <v>709</v>
       </c>
       <c r="E14">
-        <v>0.69499999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="G14">
-        <v>2.2999999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="H14">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1149,258 +1149,232 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D15">
-        <v>1117</v>
+        <v>1049</v>
       </c>
       <c r="E15">
-        <v>0.56200000000000006</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="F15">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="G15">
-        <v>2.5099999999999998</v>
+        <v>2.64</v>
       </c>
       <c r="H15">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D16">
-        <v>1359</v>
+        <v>1457</v>
       </c>
       <c r="E16">
-        <v>0.46899999999999997</v>
+        <v>0.49</v>
       </c>
       <c r="F16">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="G16">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H16">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D17">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="E17">
-        <v>0.44800000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="F17">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G17">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="H17">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D18">
-        <v>1809</v>
+        <v>1667</v>
       </c>
       <c r="E18">
-        <v>0.35799999999999998</v>
+        <v>0.432</v>
       </c>
       <c r="F18">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="G18">
-        <v>1.67</v>
+        <v>2.21</v>
       </c>
       <c r="H18">
-        <v>2.0699999999999998</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D19">
-        <v>2180</v>
+        <v>2215</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F19">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G19">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="H19">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D20">
-        <v>2498</v>
+        <v>2851</v>
       </c>
       <c r="E20">
-        <v>0.26300000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F20">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G20">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D21">
-        <v>3235</v>
+        <v>3078</v>
       </c>
       <c r="E21">
-        <v>0.20499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H21">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>2.7E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D22">
-        <v>3590</v>
+        <v>3139</v>
       </c>
       <c r="E22">
-        <v>0.185</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F22">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G22">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="H22">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D23">
-        <v>31593</v>
-      </c>
-      <c r="E23">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>1.69</v>
-      </c>
-      <c r="G23">
-        <v>1.61</v>
-      </c>
-      <c r="H23">
-        <v>1.39</v>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1384,1395 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D92530-17DC-CB45-8C20-9976A35F4891}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D12">
+        <v>272</v>
+      </c>
+      <c r="E12">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="F12">
+        <v>3.04</v>
+      </c>
+      <c r="G12">
+        <v>2.85</v>
+      </c>
+      <c r="H12">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D13">
+        <v>283</v>
+      </c>
+      <c r="E13">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.93</v>
+      </c>
+      <c r="G13">
+        <v>3.09</v>
+      </c>
+      <c r="H13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>381</v>
+      </c>
+      <c r="E14">
+        <v>1.079</v>
+      </c>
+      <c r="F14">
+        <v>2.76</v>
+      </c>
+      <c r="G14">
+        <v>2.33</v>
+      </c>
+      <c r="H14">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
+      </c>
+      <c r="E15">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="F15">
+        <v>2.64</v>
+      </c>
+      <c r="G15">
+        <v>2.59</v>
+      </c>
+      <c r="H15">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D16">
+        <v>572</v>
+      </c>
+      <c r="E16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F16">
+        <v>2.29</v>
+      </c>
+      <c r="G16">
+        <v>2.64</v>
+      </c>
+      <c r="H16">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D17">
+        <v>666</v>
+      </c>
+      <c r="E17">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F17">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G17">
+        <v>1.48</v>
+      </c>
+      <c r="H17">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="D18">
+        <v>779</v>
+      </c>
+      <c r="E18">
+        <v>0.59</v>
+      </c>
+      <c r="F18">
+        <v>2.12</v>
+      </c>
+      <c r="G18">
+        <v>2.36</v>
+      </c>
+      <c r="H18">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="D19">
+        <v>784</v>
+      </c>
+      <c r="E19">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F19">
+        <v>2.15</v>
+      </c>
+      <c r="G19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H19">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D20">
+        <v>880</v>
+      </c>
+      <c r="E20">
+        <v>0.53</v>
+      </c>
+      <c r="F20">
+        <v>2.08</v>
+      </c>
+      <c r="G20">
+        <v>2.21</v>
+      </c>
+      <c r="H20">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D21">
+        <v>1185</v>
+      </c>
+      <c r="E21">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F21">
+        <v>2.06</v>
+      </c>
+      <c r="G21">
+        <v>1.61</v>
+      </c>
+      <c r="H21">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D22">
+        <v>1216</v>
+      </c>
+      <c r="E22">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F22">
+        <v>2.09</v>
+      </c>
+      <c r="G22">
+        <v>1.42</v>
+      </c>
+      <c r="H22">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <v>1426</v>
+      </c>
+      <c r="E23">
+        <v>0.34</v>
+      </c>
+      <c r="F23">
+        <v>1.96</v>
+      </c>
+      <c r="G23">
+        <v>1.7</v>
+      </c>
+      <c r="H23">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D24">
+        <v>1479</v>
+      </c>
+      <c r="E24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F24">
+        <v>1.89</v>
+      </c>
+      <c r="G24">
+        <v>1.93</v>
+      </c>
+      <c r="H24">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D25">
+        <v>1486</v>
+      </c>
+      <c r="E25">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F25">
+        <v>1.92</v>
+      </c>
+      <c r="G25">
+        <v>1.8</v>
+      </c>
+      <c r="H25">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>1762</v>
+      </c>
+      <c r="E26">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F26">
+        <v>1.93</v>
+      </c>
+      <c r="G26">
+        <v>1.48</v>
+      </c>
+      <c r="H26">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>3328</v>
+      </c>
+      <c r="E27">
+        <v>0.151</v>
+      </c>
+      <c r="F27">
+        <v>1.76</v>
+      </c>
+      <c r="G27">
+        <v>1.53</v>
+      </c>
+      <c r="H27">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>3706</v>
+      </c>
+      <c r="E28">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.76</v>
+      </c>
+      <c r="G28">
+        <v>1.44</v>
+      </c>
+      <c r="H28">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D12">
+        <v>177</v>
+      </c>
+      <c r="E12">
+        <v>1.64</v>
+      </c>
+      <c r="F12">
+        <v>3.04</v>
+      </c>
+      <c r="G12">
+        <v>2.85</v>
+      </c>
+      <c r="H12">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D13">
+        <v>189</v>
+      </c>
+      <c r="E13">
+        <v>1.571</v>
+      </c>
+      <c r="F13">
+        <v>2.93</v>
+      </c>
+      <c r="G13">
+        <v>3.09</v>
+      </c>
+      <c r="H13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D14">
+        <v>238</v>
+      </c>
+      <c r="E14">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="F14">
+        <v>2.76</v>
+      </c>
+      <c r="G14">
+        <v>2.33</v>
+      </c>
+      <c r="H14">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D15">
+        <v>257</v>
+      </c>
+      <c r="E15">
+        <v>1.274</v>
+      </c>
+      <c r="F15">
+        <v>2.64</v>
+      </c>
+      <c r="G15">
+        <v>2.59</v>
+      </c>
+      <c r="H15">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="D16">
+        <v>359</v>
+      </c>
+      <c r="E16">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G16">
+        <v>1.48</v>
+      </c>
+      <c r="H16">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="D17">
+        <v>364</v>
+      </c>
+      <c r="E17">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F17">
+        <v>2.29</v>
+      </c>
+      <c r="G17">
+        <v>2.64</v>
+      </c>
+      <c r="H17">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D18">
+        <v>456</v>
+      </c>
+      <c r="E18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F18">
+        <v>2.15</v>
+      </c>
+      <c r="G18">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H18">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D19">
+        <v>462</v>
+      </c>
+      <c r="E19">
+        <v>0.81</v>
+      </c>
+      <c r="F19">
+        <v>2.12</v>
+      </c>
+      <c r="G19">
+        <v>2.36</v>
+      </c>
+      <c r="H19">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F20">
+        <v>2.08</v>
+      </c>
+      <c r="G20">
+        <v>2.21</v>
+      </c>
+      <c r="H20">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="D21">
+        <v>561</v>
+      </c>
+      <c r="E21">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F21">
+        <v>2.09</v>
+      </c>
+      <c r="G21">
+        <v>1.42</v>
+      </c>
+      <c r="H21">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D22">
+        <v>569</v>
+      </c>
+      <c r="E22">
+        <v>0.68</v>
+      </c>
+      <c r="F22">
+        <v>2.06</v>
+      </c>
+      <c r="G22">
+        <v>1.61</v>
+      </c>
+      <c r="H22">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D23">
+        <v>632</v>
+      </c>
+      <c r="E23">
+        <v>0.622</v>
+      </c>
+      <c r="F23">
+        <v>1.92</v>
+      </c>
+      <c r="G23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H23">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D24">
+        <v>656</v>
+      </c>
+      <c r="E24">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F24">
+        <v>1.96</v>
+      </c>
+      <c r="G24">
+        <v>1.7</v>
+      </c>
+      <c r="H24">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="D25">
+        <v>688</v>
+      </c>
+      <c r="E25">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F25">
+        <v>1.92</v>
+      </c>
+      <c r="G25">
+        <v>1.8</v>
+      </c>
+      <c r="H25">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="D26">
+        <v>703</v>
+      </c>
+      <c r="E26">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F26">
+        <v>1.89</v>
+      </c>
+      <c r="G26">
+        <v>1.93</v>
+      </c>
+      <c r="H26">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="D27">
+        <v>718</v>
+      </c>
+      <c r="E27">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F27">
+        <v>1.93</v>
+      </c>
+      <c r="G27">
+        <v>1.48</v>
+      </c>
+      <c r="H27">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>897</v>
+      </c>
+      <c r="E28">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F28">
+        <v>1.84</v>
+      </c>
+      <c r="G28">
+        <v>1.3</v>
+      </c>
+      <c r="H28">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>1004</v>
+      </c>
+      <c r="E29">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1.76</v>
+      </c>
+      <c r="G29">
+        <v>1.53</v>
+      </c>
+      <c r="H29">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D30">
+        <v>1025</v>
+      </c>
+      <c r="E30">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F30">
+        <v>1.76</v>
+      </c>
+      <c r="G30">
+        <v>1.44</v>
+      </c>
+      <c r="H30">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D31">
+        <v>1042</v>
+      </c>
+      <c r="E31">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F31">
+        <v>1.79</v>
+      </c>
+      <c r="G31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>1136</v>
+      </c>
+      <c r="E32">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.72</v>
+      </c>
+      <c r="G32">
+        <v>1.42</v>
+      </c>
+      <c r="H32">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D33">
+        <v>1386</v>
+      </c>
+      <c r="E33">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.67</v>
+      </c>
+      <c r="G33">
+        <v>1.21</v>
+      </c>
+      <c r="H33">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D34">
+        <v>1412</v>
+      </c>
+      <c r="E34">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F34">
+        <v>1.66</v>
+      </c>
+      <c r="G34">
+        <v>1.27</v>
+      </c>
+      <c r="H34">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D35">
+        <v>1426</v>
+      </c>
+      <c r="E35">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.65</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>1593</v>
+      </c>
+      <c r="E36">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F36">
+        <v>1.58</v>
+      </c>
+      <c r="G36">
+        <v>1.55</v>
+      </c>
+      <c r="H36">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D37">
+        <v>2132</v>
+      </c>
+      <c r="E37">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F37">
+        <v>1.52</v>
+      </c>
+      <c r="G37">
+        <v>1.43</v>
+      </c>
+      <c r="H37">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D38">
+        <v>2209</v>
+      </c>
+      <c r="E38">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F38">
+        <v>1.52</v>
+      </c>
+      <c r="G38">
+        <v>1.38</v>
+      </c>
+      <c r="H38">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>3855</v>
+      </c>
+      <c r="E39">
+        <v>0.115</v>
+      </c>
+      <c r="F39">
+        <v>1.45</v>
+      </c>
+      <c r="G39">
+        <v>1.18</v>
+      </c>
+      <c r="H39">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -1423,42 +2785,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1489,54 +2852,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.26400000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D12">
-        <v>279</v>
+        <v>-143</v>
       </c>
       <c r="E12">
-        <v>1.3480000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="F12">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="G12">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="H12">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.222</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D13">
-        <v>350</v>
+        <v>-124</v>
       </c>
       <c r="E13">
-        <v>1.135</v>
+        <v>1.615</v>
       </c>
       <c r="F13">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="G13">
-        <v>2.37</v>
+        <v>3.09</v>
       </c>
       <c r="H13">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1547,22 +2910,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.218</v>
+        <v>0.497</v>
       </c>
       <c r="D14">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>1.117</v>
+        <v>1.446</v>
       </c>
       <c r="F14">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="H14">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1573,256 +2936,256 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.154</v>
+        <v>0.46</v>
       </c>
       <c r="D15">
-        <v>550</v>
+        <v>117</v>
       </c>
       <c r="E15">
-        <v>0.78700000000000003</v>
+        <v>1.341</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="G15">
-        <v>2.2999999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="H15">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.13100000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D16">
-        <v>665</v>
+        <v>154</v>
       </c>
       <c r="E16">
-        <v>0.66900000000000004</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="F16">
-        <v>2.19</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>2.5099999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="H16">
-        <v>1.34</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.125</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D17">
-        <v>699</v>
+        <v>187</v>
       </c>
       <c r="E17">
-        <v>0.64</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="F17">
-        <v>2.4500000000000002</v>
+        <v>2.29</v>
       </c>
       <c r="G17">
-        <v>1.32</v>
+        <v>2.64</v>
       </c>
       <c r="H17">
-        <v>3.11</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.111</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D18">
-        <v>804</v>
+        <v>232</v>
       </c>
       <c r="E18">
-        <v>0.56599999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="F18">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="G18">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H18">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.107</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D19">
-        <v>836</v>
+        <v>240</v>
       </c>
       <c r="E19">
-        <v>0.54600000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F19">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G19">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D20">
-        <v>1063</v>
+        <v>256</v>
       </c>
       <c r="E20">
-        <v>0.44</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="G20">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H20">
-        <v>2.4300000000000002</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D21">
-        <v>1076</v>
+        <v>257</v>
       </c>
       <c r="E21">
-        <v>0.435</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F21">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="G21">
-        <v>1.67</v>
+        <v>2.21</v>
       </c>
       <c r="H21">
-        <v>2.0699999999999998</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D22">
-        <v>1219</v>
+        <v>269</v>
       </c>
       <c r="E22">
-        <v>0.38700000000000001</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F22">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="H22">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D23">
-        <v>1395</v>
+        <v>288</v>
       </c>
       <c r="E23">
-        <v>0.34200000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="F23">
-        <v>1.98</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G23">
-        <v>1.64</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H23">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D24">
-        <v>1622</v>
+        <v>320</v>
       </c>
       <c r="E24">
-        <v>0.29699999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F24">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="H24">
-        <v>2.0699999999999998</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,203 +3196,567 @@
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D25">
-        <v>1669</v>
+        <v>337</v>
       </c>
       <c r="E25">
-        <v>0.28899999999999998</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F25">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="H25">
-        <v>1.68</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>5.5E-2</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D26">
-        <v>1722</v>
+        <v>339</v>
       </c>
       <c r="E26">
-        <v>0.28100000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F26">
         <v>1.92</v>
       </c>
       <c r="G26">
-        <v>1.57</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H26">
-        <v>1.86</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D27">
-        <v>1794</v>
+        <v>343</v>
       </c>
       <c r="E27">
-        <v>0.27</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="F27">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="H27">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.05</v>
+        <v>0.222</v>
       </c>
       <c r="D28">
-        <v>1886</v>
+        <v>349</v>
       </c>
       <c r="E28">
-        <v>0.25800000000000001</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F28">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="H28">
-        <v>1.81</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>3.1E-2</v>
+        <v>0.217</v>
       </c>
       <c r="D29">
-        <v>3126</v>
+        <v>361</v>
       </c>
       <c r="E29">
-        <v>0.159</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F29">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="H29">
-        <v>1.76</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2">
-        <v>0.03</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D30">
-        <v>3193</v>
+        <v>406</v>
       </c>
       <c r="E30">
-        <v>0.155</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F30">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H30">
-        <v>1.89</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D31">
+        <v>452</v>
+      </c>
+      <c r="E31">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F31">
+        <v>1.79</v>
+      </c>
+      <c r="G31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D32">
+        <v>479</v>
+      </c>
+      <c r="E32">
+        <v>0.503</v>
+      </c>
+      <c r="F32">
+        <v>1.76</v>
+      </c>
+      <c r="G32">
+        <v>1.53</v>
+      </c>
+      <c r="H32">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D33">
+        <v>479</v>
+      </c>
+      <c r="E33">
+        <v>0.503</v>
+      </c>
+      <c r="F33">
+        <v>1.76</v>
+      </c>
+      <c r="G33">
+        <v>1.44</v>
+      </c>
+      <c r="H33">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D34">
+        <v>491</v>
+      </c>
+      <c r="E34">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F34">
+        <v>1.74</v>
+      </c>
+      <c r="G34">
+        <v>2.13</v>
+      </c>
+      <c r="H34">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D35">
+        <v>525</v>
+      </c>
+      <c r="E35">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F35">
+        <v>1.72</v>
+      </c>
+      <c r="G35">
+        <v>1.42</v>
+      </c>
+      <c r="H35">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D31">
-        <v>4547</v>
-      </c>
-      <c r="E31">
-        <v>0.11</v>
-      </c>
-      <c r="F31">
+      <c r="C36" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D36">
+        <v>595</v>
+      </c>
+      <c r="E36">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F36">
+        <v>1.67</v>
+      </c>
+      <c r="G36">
+        <v>1.21</v>
+      </c>
+      <c r="H36">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D37">
+        <v>615</v>
+      </c>
+      <c r="E37">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F37">
+        <v>1.66</v>
+      </c>
+      <c r="G37">
+        <v>1.27</v>
+      </c>
+      <c r="H37">
         <v>1.72</v>
       </c>
-      <c r="G31">
-        <v>1.46</v>
-      </c>
-      <c r="H31">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D38">
+        <v>625</v>
+      </c>
+      <c r="E38">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F38">
+        <v>1.65</v>
+      </c>
+      <c r="G38">
+        <v>1.3</v>
+      </c>
+      <c r="H38">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D39">
+        <v>738</v>
+      </c>
+      <c r="E39">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F39">
+        <v>1.58</v>
+      </c>
+      <c r="G39">
+        <v>1.82</v>
+      </c>
+      <c r="H39">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D40">
+        <v>748</v>
+      </c>
+      <c r="E40">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F40">
+        <v>1.58</v>
+      </c>
+      <c r="G40">
+        <v>1.55</v>
+      </c>
+      <c r="H40">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D41">
+        <v>923</v>
+      </c>
+      <c r="E41">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F41">
+        <v>1.52</v>
+      </c>
+      <c r="G41">
+        <v>1.43</v>
+      </c>
+      <c r="H41">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D42">
+        <v>932</v>
+      </c>
+      <c r="E42">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F42">
+        <v>1.52</v>
+      </c>
+      <c r="G42">
+        <v>1.38</v>
+      </c>
+      <c r="H42">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D43">
+        <v>1154</v>
+      </c>
+      <c r="E43">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1.47</v>
+      </c>
+      <c r="G43">
+        <v>1.08</v>
+      </c>
+      <c r="H43">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D44">
+        <v>1274</v>
+      </c>
+      <c r="E44">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F44">
+        <v>1.45</v>
+      </c>
+      <c r="G44">
+        <v>1.18</v>
+      </c>
+      <c r="H44">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D45">
+        <v>1568</v>
+      </c>
+      <c r="E45">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F45">
+        <v>1.41</v>
+      </c>
+      <c r="G45">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H45">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2037,11 +3764,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
-  <dimension ref="A1:H46"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE6D6-9C95-3340-900D-F6BB0DB95F3F}">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2052,42 +3779,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2098,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -2118,54 +3851,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.32900000000000001</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>203</v>
+        <v>-1767945</v>
       </c>
       <c r="E12">
-        <v>1.55</v>
+        <v>1.831</v>
       </c>
       <c r="F12">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="G12">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="H12">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D13">
-        <v>235</v>
+        <v>-1707</v>
       </c>
       <c r="E13">
-        <v>1.4019999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="F13">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="G13">
-        <v>2.37</v>
+        <v>3.09</v>
       </c>
       <c r="H13">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,22 +3909,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.29599999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D14">
-        <v>237</v>
+        <v>-580</v>
       </c>
       <c r="E14">
-        <v>1.395</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="F14">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="H14">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2202,22 +3935,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.218</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="D15">
-        <v>357</v>
+        <v>-388</v>
       </c>
       <c r="E15">
-        <v>1.0289999999999999</v>
+        <v>1.456</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="G15">
-        <v>2.2999999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="H15">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2228,22 +3961,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D16">
-        <v>388</v>
+        <v>-220</v>
       </c>
       <c r="E16">
-        <v>0.96399999999999997</v>
+        <v>1.2589999999999999</v>
       </c>
       <c r="F16">
         <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="H16">
-        <v>3.11</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2254,126 +3987,126 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.187</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D17">
-        <v>435</v>
+        <v>-160</v>
       </c>
       <c r="E17">
-        <v>0.88</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F17">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="G17">
-        <v>2.5099999999999998</v>
+        <v>2.64</v>
       </c>
       <c r="H17">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D18">
-        <v>491</v>
+        <v>-117</v>
       </c>
       <c r="E18">
-        <v>0.79600000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="F18">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="G18">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H18">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.16400000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D19">
-        <v>508</v>
+        <v>-112</v>
       </c>
       <c r="E19">
-        <v>0.77400000000000002</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F19">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G19">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.16</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D20">
-        <v>526</v>
+        <v>-103</v>
       </c>
       <c r="E20">
-        <v>0.751</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="F20">
-        <v>2.0499999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="G20">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="H20">
-        <v>1.21</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>0.156</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D21">
-        <v>541</v>
+        <v>-102</v>
       </c>
       <c r="E21">
-        <v>0.73399999999999999</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="F21">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="G21">
-        <v>1.45</v>
+        <v>2.21</v>
       </c>
       <c r="H21">
-        <v>2.4300000000000002</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2384,48 +4117,48 @@
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>0.15</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D22">
-        <v>566</v>
+        <v>102</v>
       </c>
       <c r="E22">
-        <v>0.70699999999999996</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="F22">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="H22">
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D23">
-        <v>607</v>
+        <v>111</v>
       </c>
       <c r="E23">
-        <v>0.66600000000000004</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F23">
-        <v>1.97</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G23">
-        <v>2.2599999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H23">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2436,437 +4169,801 @@
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="D24">
-        <v>639</v>
+        <v>126</v>
       </c>
       <c r="E24">
-        <v>0.63700000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F24">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="H24">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.129</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D25">
-        <v>673</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <v>0.60899999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F25">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="H25">
-        <v>1.9</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>0.123</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D26">
-        <v>716</v>
+        <v>135</v>
       </c>
       <c r="E26">
-        <v>0.57699999999999996</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F26">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G26">
-        <v>1.46</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H26">
-        <v>2.0699999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>0.11600000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D27">
-        <v>758</v>
+        <v>137</v>
       </c>
       <c r="E27">
-        <v>0.54800000000000004</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="F27">
         <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="H27">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.11600000000000001</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D28">
-        <v>763</v>
+        <v>140</v>
       </c>
       <c r="E28">
-        <v>0.54500000000000004</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="F28">
         <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="H28">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.111</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D29">
-        <v>797</v>
+        <v>145</v>
       </c>
       <c r="E29">
-        <v>0.52500000000000002</v>
+        <v>0.746</v>
       </c>
       <c r="F29">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="H29">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2">
-        <v>0.111</v>
+        <v>0.377</v>
       </c>
       <c r="D30">
-        <v>799</v>
+        <v>165</v>
       </c>
       <c r="E30">
-        <v>0.52400000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F30">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G30">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="H30">
-        <v>1.81</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D31">
-        <v>869</v>
+        <v>176</v>
       </c>
       <c r="E31">
-        <v>0.48599999999999999</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G31">
-        <v>1.92</v>
+        <v>1.07</v>
       </c>
       <c r="H31">
-        <v>1.25</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D32">
-        <v>988</v>
+        <v>184</v>
       </c>
       <c r="E32">
-        <v>0.433</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F32">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G32">
-        <v>1.36</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H32">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D33">
-        <v>1000</v>
+        <v>196</v>
       </c>
       <c r="E33">
-        <v>0.42799999999999999</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="F33">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G33">
         <v>1.44</v>
       </c>
       <c r="H33">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D34">
-        <v>1163</v>
+        <v>196</v>
       </c>
       <c r="E34">
-        <v>0.373</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="F34">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G34">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="H34">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D35">
-        <v>1216</v>
+        <v>201</v>
       </c>
       <c r="E35">
-        <v>0.35799999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="F35">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G35">
-        <v>1.61</v>
+        <v>2.13</v>
       </c>
       <c r="H35">
-        <v>1.39</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.317</v>
       </c>
       <c r="D36">
-        <v>1354</v>
+        <v>215</v>
       </c>
       <c r="E36">
-        <v>0.32400000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="F36">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="G36">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="H36">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D37">
-        <v>1381</v>
+        <v>242</v>
       </c>
       <c r="E37">
-        <v>0.318</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F37">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G37">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H37">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D38">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="E38">
-        <v>0.314</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F38">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G38">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="H38">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D39">
-        <v>2320</v>
+        <v>254</v>
       </c>
       <c r="E39">
-        <v>0.19500000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="F39">
+        <v>1.65</v>
+      </c>
+      <c r="G39">
+        <v>1.3</v>
+      </c>
+      <c r="H39">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="D40">
+        <v>296</v>
+      </c>
+      <c r="E40">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F40">
+        <v>1.58</v>
+      </c>
+      <c r="G40">
+        <v>1.82</v>
+      </c>
+      <c r="H40">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D41">
+        <v>299</v>
+      </c>
+      <c r="E41">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F41">
+        <v>1.58</v>
+      </c>
+      <c r="G41">
         <v>1.55</v>
       </c>
-      <c r="G39">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H39">
-        <v>1.62</v>
+      <c r="H41">
+        <v>1.27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="D42">
+        <v>357</v>
+      </c>
+      <c r="E42">
+        <v>0.4</v>
+      </c>
+      <c r="F42">
+        <v>1.52</v>
+      </c>
+      <c r="G42">
+        <v>1.43</v>
+      </c>
+      <c r="H42">
+        <v>1.29</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="D43">
+        <v>360</v>
+      </c>
+      <c r="E43">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F43">
+        <v>1.52</v>
+      </c>
+      <c r="G43">
+        <v>1.38</v>
+      </c>
+      <c r="H43">
+        <v>1.35</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D44">
+        <v>425</v>
+      </c>
+      <c r="E44">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F44">
+        <v>1.47</v>
+      </c>
+      <c r="G44">
+        <v>1.08</v>
+      </c>
+      <c r="H44">
+        <v>1.58</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D45">
+        <v>458</v>
+      </c>
+      <c r="E45">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F45">
+        <v>1.45</v>
+      </c>
+      <c r="G45">
+        <v>1.18</v>
+      </c>
+      <c r="H45">
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="D46">
+        <v>530</v>
+      </c>
+      <c r="E46">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F46">
+        <v>1.41</v>
+      </c>
+      <c r="G46">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H46">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D47">
+        <v>565</v>
+      </c>
+      <c r="E47">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F47">
+        <v>1.39</v>
+      </c>
+      <c r="G47">
+        <v>1.66</v>
+      </c>
+      <c r="H47">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="D48">
+        <v>691</v>
+      </c>
+      <c r="E48">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F48">
+        <v>1.34</v>
+      </c>
+      <c r="G48">
+        <v>1.57</v>
+      </c>
+      <c r="H48">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D49">
+        <v>881</v>
+      </c>
+      <c r="E49">
+        <v>0.187</v>
+      </c>
+      <c r="F49">
+        <v>1.3</v>
+      </c>
+      <c r="G49">
+        <v>1.07</v>
+      </c>
+      <c r="H49">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D50">
+        <v>890</v>
+      </c>
+      <c r="E50">
+        <v>0.185</v>
+      </c>
+      <c r="F50">
+        <v>1.29</v>
+      </c>
+      <c r="G50">
+        <v>1.5</v>
+      </c>
+      <c r="H50">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D51">
+        <v>901</v>
+      </c>
+      <c r="E51">
+        <v>0.183</v>
+      </c>
+      <c r="F51">
+        <v>1.29</v>
+      </c>
+      <c r="G51">
+        <v>1.46</v>
+      </c>
+      <c r="H51">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D52">
+        <v>913</v>
+      </c>
+      <c r="E52">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F52">
+        <v>1.29</v>
+      </c>
+      <c r="G52">
+        <v>0.99</v>
+      </c>
+      <c r="H52">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D53">
+        <v>941</v>
+      </c>
+      <c r="E53">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F53">
+        <v>1.29</v>
+      </c>
+      <c r="G53">
+        <v>0.99</v>
+      </c>
+      <c r="H53">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2874,12 +4971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
-  <dimension ref="A1:H50"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,43 +4986,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,132 +5052,132 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.99</v>
       </c>
       <c r="D12">
-        <v>-123</v>
+        <v>-9899</v>
       </c>
       <c r="E12">
-        <v>1.577</v>
+        <v>2.028</v>
       </c>
       <c r="F12">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="G12">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="H12">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D13">
-        <v>-112</v>
+        <v>-1621</v>
       </c>
       <c r="E13">
-        <v>1.506</v>
+        <v>1.93</v>
       </c>
       <c r="F13">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="G13">
-        <v>2.25</v>
+        <v>3.09</v>
       </c>
       <c r="H13">
-        <v>2.83</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.52700000000000002</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D14">
-        <v>-111</v>
+        <v>-603</v>
       </c>
       <c r="E14">
-        <v>1.5029999999999999</v>
+        <v>1.758</v>
       </c>
       <c r="F14">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="H14">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.39600000000000002</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>-419</v>
       </c>
       <c r="E15">
-        <v>1.1279999999999999</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="F15">
-        <v>2.4500000000000002</v>
+        <v>2.64</v>
       </c>
       <c r="G15">
-        <v>1.32</v>
+        <v>2.59</v>
       </c>
       <c r="H15">
-        <v>3.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D16">
-        <v>158</v>
+        <v>-242</v>
       </c>
       <c r="E16">
-        <v>1.1000000000000001</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="F16">
-        <v>2.4</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G16">
-        <v>2.2999999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,97 +5188,97 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.32100000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>-184</v>
       </c>
       <c r="E17">
-        <v>0.91600000000000004</v>
+        <v>1.329</v>
       </c>
       <c r="F17">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="G17">
-        <v>2.5099999999999998</v>
+        <v>2.64</v>
       </c>
       <c r="H17">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D18">
-        <v>230</v>
+        <v>-138</v>
       </c>
       <c r="E18">
-        <v>0.86299999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F18">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="G18">
-        <v>1.45</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H18">
-        <v>2.4300000000000002</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.3</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D19">
-        <v>233</v>
+        <v>-133</v>
       </c>
       <c r="E19">
-        <v>0.85499999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="F19">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G19">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D20">
-        <v>244</v>
+        <v>-122</v>
       </c>
       <c r="E20">
-        <v>0.82799999999999996</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F20">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G20">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="H20">
         <v>1.48</v>
@@ -3190,600 +5286,600 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21">
-        <v>251</v>
+        <v>-122</v>
       </c>
       <c r="E21">
-        <v>0.81</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="F21">
         <v>2.09</v>
       </c>
       <c r="G21">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="H21">
-        <v>2.0699999999999998</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>0.27600000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D22">
-        <v>262</v>
+        <v>-115</v>
       </c>
       <c r="E22">
-        <v>0.78600000000000003</v>
+        <v>1.099</v>
       </c>
       <c r="F22">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="G22">
-        <v>2.4</v>
+        <v>1.61</v>
       </c>
       <c r="H22">
-        <v>1.21</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>0.251</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D23">
-        <v>298</v>
+        <v>-108</v>
       </c>
       <c r="E23">
-        <v>0.71499999999999997</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="F23">
-        <v>1.99</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G23">
-        <v>1.86</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H23">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.248</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D24">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="E24">
-        <v>0.70699999999999996</v>
+        <v>1.006</v>
       </c>
       <c r="F24">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="H24">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.248</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D25">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="E25">
-        <v>0.70599999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F25">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G25">
-        <v>2.2599999999999998</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H25">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D26">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="E26">
-        <v>0.69</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="F26">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="G26">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H26">
-        <v>2.0699999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D27">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="E27">
-        <v>0.64700000000000002</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F27">
         <v>1.92</v>
       </c>
       <c r="G27">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="H27">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.221</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D28">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="E28">
-        <v>0.63100000000000001</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F28">
         <v>1.9</v>
       </c>
       <c r="G28">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="H28">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>0.218</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D29">
-        <v>358</v>
+        <v>114</v>
       </c>
       <c r="E29">
-        <v>0.621</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G29">
-        <v>1.56</v>
+        <v>0.86</v>
       </c>
       <c r="H29">
-        <v>1.81</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>0.214</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D30">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="E30">
-        <v>0.60899999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F30">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G30">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="H30">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2">
-        <v>0.191</v>
+        <v>0.432</v>
       </c>
       <c r="D31">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="E31">
-        <v>0.54400000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G31">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="H31">
-        <v>1.25</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>0.19</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D32">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="E32">
-        <v>0.54200000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F32">
         <v>1.81</v>
       </c>
       <c r="G32">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="H32">
-        <v>1.89</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>0.185</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D33">
-        <v>439</v>
+        <v>144</v>
       </c>
       <c r="E33">
-        <v>0.52800000000000002</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="F33">
         <v>1.79</v>
       </c>
       <c r="G33">
-        <v>1.44</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H33">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>0.17299999999999999</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D34">
-        <v>478</v>
+        <v>151</v>
       </c>
       <c r="E34">
-        <v>0.49299999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F34">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G34">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="H34">
-        <v>0.92</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>0.16300000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D35">
-        <v>511</v>
+        <v>151</v>
       </c>
       <c r="E35">
-        <v>0.46600000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F35">
+        <v>1.76</v>
+      </c>
+      <c r="G35">
+        <v>1.44</v>
+      </c>
+      <c r="H35">
         <v>1.72</v>
-      </c>
-      <c r="G35">
-        <v>1.46</v>
-      </c>
-      <c r="H35">
-        <v>1.61</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>0.153</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D36">
-        <v>555</v>
+        <v>153</v>
       </c>
       <c r="E36">
-        <v>0.435</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F36">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G36">
-        <v>1.61</v>
+        <v>2.13</v>
       </c>
       <c r="H36">
-        <v>1.39</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="D37">
-        <v>565</v>
+        <v>163</v>
       </c>
       <c r="E37">
-        <v>0.42799999999999999</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="F37">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G37">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="H37">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D38">
-        <v>611</v>
+        <v>180</v>
       </c>
       <c r="E38">
-        <v>0.40100000000000002</v>
+        <v>0.73</v>
       </c>
       <c r="F38">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G38">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="H38">
-        <v>1.35</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D39">
-        <v>613</v>
+        <v>185</v>
       </c>
       <c r="E39">
-        <v>0.39900000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="F39">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G39">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="H39">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>0.121</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D40">
-        <v>728</v>
+        <v>187</v>
       </c>
       <c r="E40">
-        <v>0.34399999999999997</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F40">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G40">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40">
-        <v>0.98</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>0.105</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D41">
-        <v>848</v>
+        <v>209</v>
       </c>
       <c r="E41">
-        <v>0.3</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="F41">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G41">
-        <v>1.1599999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="H41">
-        <v>1.62</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>0.1</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D42">
-        <v>903</v>
+        <v>211</v>
       </c>
       <c r="E42">
-        <v>0.28399999999999997</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F42">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="G42">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H42">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D43">
-        <v>908</v>
+        <v>242</v>
       </c>
       <c r="E43">
-        <v>0.28299999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="F43">
         <v>1.52</v>
       </c>
       <c r="G43">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="H43">
-        <v>1.0900000000000001</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,2351 +5890,333 @@
         <v>23</v>
       </c>
       <c r="C44" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D44">
-        <v>1809</v>
+        <v>244</v>
       </c>
       <c r="E44">
-        <v>0.14899999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="F44">
+        <v>1.52</v>
+      </c>
+      <c r="G44">
         <v>1.38</v>
       </c>
-      <c r="G44">
-        <v>1.3</v>
-      </c>
       <c r="H44">
-        <v>1.1499999999999999</v>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D45">
+        <v>276</v>
+      </c>
+      <c r="E45">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F45">
+        <v>1.47</v>
+      </c>
+      <c r="G45">
+        <v>1.08</v>
+      </c>
+      <c r="H45">
+        <v>1.58</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D46">
+        <v>290</v>
+      </c>
+      <c r="E46">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F46">
+        <v>1.45</v>
+      </c>
+      <c r="G46">
+        <v>1.18</v>
+      </c>
+      <c r="H46">
+        <v>1.43</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D47">
+        <v>320</v>
+      </c>
+      <c r="E47">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F47">
+        <v>1.41</v>
+      </c>
+      <c r="G47">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H47">
+        <v>1.38</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE6D6-9C95-3340-900D-F6BB0DB95F3F}">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D12">
-        <v>-12810</v>
-      </c>
-      <c r="E12">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="F12">
-        <v>2.89</v>
-      </c>
-      <c r="G12">
-        <v>3.24</v>
-      </c>
-      <c r="H12">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D13">
-        <v>-1972</v>
-      </c>
-      <c r="E13">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="F13">
-        <v>2.84</v>
-      </c>
-      <c r="G13">
-        <v>2.25</v>
-      </c>
-      <c r="H13">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D14">
-        <v>-1881</v>
-      </c>
-      <c r="E14">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="F14">
-        <v>2.83</v>
-      </c>
-      <c r="G14">
-        <v>2.37</v>
-      </c>
-      <c r="H14">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="D15">
-        <v>-270</v>
-      </c>
-      <c r="E15">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="F15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G15">
-        <v>1.32</v>
-      </c>
-      <c r="H15">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D16">
-        <v>-248</v>
-      </c>
-      <c r="E16">
-        <v>1.216</v>
-      </c>
-      <c r="F16">
-        <v>2.4</v>
-      </c>
-      <c r="G16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H16">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="D17">
-        <v>-152</v>
-      </c>
-      <c r="E17">
-        <v>1.03</v>
-      </c>
-      <c r="F17">
-        <v>2.19</v>
-      </c>
-      <c r="G17">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="H17">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="D18">
-        <v>-134</v>
-      </c>
-      <c r="E18">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="F18">
-        <v>2.16</v>
-      </c>
-      <c r="G18">
-        <v>1.45</v>
-      </c>
-      <c r="H18">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="D19">
-        <v>-131</v>
-      </c>
-      <c r="E19">
-        <v>0.97</v>
-      </c>
-      <c r="F19">
-        <v>2.13</v>
-      </c>
-      <c r="G19">
-        <v>2.21</v>
-      </c>
-      <c r="H19">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D20">
-        <v>-123</v>
-      </c>
-      <c r="E20">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="F20">
-        <v>2.1</v>
-      </c>
-      <c r="G20">
-        <v>2.23</v>
-      </c>
-      <c r="H20">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="D21">
-        <v>-118</v>
-      </c>
-      <c r="E21">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="F21">
-        <v>2.09</v>
-      </c>
-      <c r="G21">
-        <v>1.67</v>
-      </c>
-      <c r="H21">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D22">
-        <v>-112</v>
-      </c>
-      <c r="E22">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="F22">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G22">
-        <v>2.4</v>
-      </c>
-      <c r="H22">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D23">
-        <v>105</v>
-      </c>
-      <c r="E23">
-        <v>0.83</v>
-      </c>
-      <c r="F23">
-        <v>1.99</v>
-      </c>
-      <c r="G23">
-        <v>1.86</v>
-      </c>
-      <c r="H23">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D24">
-        <v>107</v>
-      </c>
-      <c r="E24">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="F24">
-        <v>1.98</v>
-      </c>
-      <c r="G24">
-        <v>1.64</v>
-      </c>
-      <c r="H24">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D25">
-        <v>107</v>
-      </c>
-      <c r="E25">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="F25">
-        <v>1.97</v>
-      </c>
-      <c r="G25">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H25">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D26">
-        <v>111</v>
-      </c>
-      <c r="E26">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="F26">
-        <v>1.97</v>
-      </c>
-      <c r="G26">
-        <v>1.46</v>
-      </c>
-      <c r="H26">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D27">
-        <v>123</v>
-      </c>
-      <c r="E27">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="F27">
-        <v>1.92</v>
-      </c>
-      <c r="G27">
-        <v>1.57</v>
-      </c>
-      <c r="H27">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="D28">
-        <v>128</v>
-      </c>
-      <c r="E28">
-        <v>0.747</v>
-      </c>
-      <c r="F28">
-        <v>1.9</v>
-      </c>
-      <c r="G28">
-        <v>1.7</v>
-      </c>
-      <c r="H28">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="D29">
-        <v>131</v>
-      </c>
-      <c r="E29">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F29">
-        <v>1.89</v>
-      </c>
-      <c r="G29">
-        <v>1.56</v>
-      </c>
-      <c r="H29">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D30">
-        <v>135</v>
-      </c>
-      <c r="E30">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="F30">
-        <v>1.87</v>
-      </c>
-      <c r="G30">
-        <v>1.69</v>
-      </c>
-      <c r="H30">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D31">
-        <v>158</v>
-      </c>
-      <c r="E31">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="F31">
-        <v>1.8</v>
-      </c>
-      <c r="G31">
-        <v>1.92</v>
-      </c>
-      <c r="H31">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D32">
-        <v>159</v>
-      </c>
-      <c r="E32">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="F32">
-        <v>1.81</v>
-      </c>
-      <c r="G32">
-        <v>1.36</v>
-      </c>
-      <c r="H32">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.378</v>
-      </c>
-      <c r="D33">
-        <v>164</v>
-      </c>
-      <c r="E33">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="F33">
-        <v>1.79</v>
-      </c>
-      <c r="G33">
-        <v>1.44</v>
-      </c>
-      <c r="H33">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D34">
-        <v>180</v>
-      </c>
-      <c r="E34">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="F34">
-        <v>1.74</v>
-      </c>
-      <c r="G34">
-        <v>2.12</v>
-      </c>
-      <c r="H34">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D35">
-        <v>193</v>
-      </c>
-      <c r="E35">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F35">
-        <v>1.72</v>
-      </c>
-      <c r="G35">
-        <v>1.46</v>
-      </c>
-      <c r="H35">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D36">
-        <v>209</v>
-      </c>
-      <c r="E36">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F36">
-        <v>1.69</v>
-      </c>
-      <c r="G36">
-        <v>1.61</v>
-      </c>
-      <c r="H36">
+      <c r="C48" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D48">
+        <v>330</v>
+      </c>
+      <c r="E48">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F48">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D37">
-        <v>213</v>
-      </c>
-      <c r="E37">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F37">
-        <v>1.69</v>
-      </c>
-      <c r="G37">
-        <v>1.24</v>
-      </c>
-      <c r="H37">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D38">
-        <v>230</v>
-      </c>
-      <c r="E38">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F38">
-        <v>1.65</v>
-      </c>
-      <c r="G38">
-        <v>1.58</v>
-      </c>
-      <c r="H38">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D39">
-        <v>231</v>
-      </c>
-      <c r="E39">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="F39">
-        <v>1.65</v>
-      </c>
-      <c r="G39">
-        <v>1.48</v>
-      </c>
-      <c r="H39">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D40">
-        <v>271</v>
-      </c>
-      <c r="E40">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="F40">
-        <v>1.58</v>
-      </c>
-      <c r="G40">
-        <v>1.8</v>
-      </c>
-      <c r="H40">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D41">
-        <v>309</v>
-      </c>
-      <c r="E41">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F41">
-        <v>1.55</v>
-      </c>
-      <c r="G41">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H41">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D42">
-        <v>327</v>
-      </c>
-      <c r="E42">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="F42">
-        <v>1.52</v>
-      </c>
-      <c r="G42">
-        <v>1.75</v>
-      </c>
-      <c r="H42">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D43">
-        <v>328</v>
-      </c>
-      <c r="E43">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="F43">
-        <v>1.52</v>
-      </c>
-      <c r="G43">
-        <v>1.6</v>
-      </c>
-      <c r="H43">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.155</v>
-      </c>
-      <c r="D44">
-        <v>544</v>
-      </c>
-      <c r="E44">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="F44">
-        <v>1.38</v>
-      </c>
-      <c r="G44">
-        <v>1.3</v>
-      </c>
-      <c r="H44">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D45">
-        <v>579</v>
-      </c>
-      <c r="E45">
-        <v>0.251</v>
-      </c>
-      <c r="F45">
-        <v>1.37</v>
-      </c>
-      <c r="G45">
-        <v>1.31</v>
-      </c>
-      <c r="H45">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D46">
-        <v>597</v>
-      </c>
-      <c r="E46">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F46">
-        <v>1.37</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D47">
-        <v>875</v>
-      </c>
-      <c r="E47">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F47">
-        <v>1.28</v>
-      </c>
-      <c r="G47">
-        <v>1.32</v>
-      </c>
-      <c r="H47">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
-  <dimension ref="A1:H61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D12">
-        <v>-9899</v>
-      </c>
-      <c r="E12">
-        <v>1.893</v>
-      </c>
-      <c r="F12">
-        <v>2.89</v>
-      </c>
-      <c r="G12">
-        <v>3.24</v>
-      </c>
-      <c r="H12">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D13">
-        <v>-1906</v>
-      </c>
-      <c r="E13">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="F13">
-        <v>2.84</v>
-      </c>
-      <c r="G13">
-        <v>2.25</v>
-      </c>
-      <c r="H13">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="D14">
-        <v>-1849</v>
-      </c>
-      <c r="E14">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="F14">
-        <v>2.83</v>
-      </c>
-      <c r="G14">
-        <v>2.37</v>
-      </c>
-      <c r="H14">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.751</v>
-      </c>
-      <c r="D15">
-        <v>-301</v>
-      </c>
-      <c r="E15">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="F15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G15">
-        <v>1.32</v>
-      </c>
-      <c r="H15">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="D16">
-        <v>-283</v>
-      </c>
-      <c r="E16">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="F16">
-        <v>2.4</v>
-      </c>
-      <c r="G16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H16">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="D17">
-        <v>-181</v>
-      </c>
-      <c r="E17">
-        <v>1.232</v>
-      </c>
-      <c r="F17">
-        <v>2.19</v>
-      </c>
-      <c r="G17">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="H17">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="D18">
-        <v>-158</v>
-      </c>
-      <c r="E18">
-        <v>1.173</v>
-      </c>
-      <c r="F18">
-        <v>2.16</v>
-      </c>
-      <c r="G18">
-        <v>1.45</v>
-      </c>
-      <c r="H18">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="D19">
-        <v>-157</v>
-      </c>
-      <c r="E19">
-        <v>1.169</v>
-      </c>
-      <c r="F19">
-        <v>2.13</v>
-      </c>
-      <c r="G19">
-        <v>2.21</v>
-      </c>
-      <c r="H19">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D20">
-        <v>-148</v>
-      </c>
-      <c r="E20">
-        <v>1.143</v>
-      </c>
-      <c r="F20">
-        <v>2.1</v>
-      </c>
-      <c r="G20">
-        <v>2.23</v>
-      </c>
-      <c r="H20">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D21">
-        <v>-141</v>
-      </c>
-      <c r="E21">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="F21">
-        <v>2.09</v>
-      </c>
-      <c r="G21">
-        <v>1.67</v>
-      </c>
-      <c r="H21">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D22">
-        <v>-136</v>
-      </c>
-      <c r="E22">
-        <v>1.103</v>
-      </c>
-      <c r="F22">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G22">
-        <v>2.4</v>
-      </c>
-      <c r="H22">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D23">
-        <v>-116</v>
-      </c>
-      <c r="E23">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="F23">
-        <v>1.99</v>
-      </c>
-      <c r="G23">
-        <v>1.86</v>
-      </c>
-      <c r="H23">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D24">
-        <v>-114</v>
-      </c>
-      <c r="E24">
-        <v>1.022</v>
-      </c>
-      <c r="F24">
-        <v>1.97</v>
-      </c>
-      <c r="G24">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H24">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D25">
-        <v>-114</v>
-      </c>
-      <c r="E25">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="F25">
-        <v>1.98</v>
-      </c>
-      <c r="G25">
-        <v>1.64</v>
-      </c>
-      <c r="H25">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="D26">
-        <v>-109</v>
-      </c>
-      <c r="E26">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="F26">
-        <v>1.97</v>
-      </c>
-      <c r="G26">
-        <v>1.46</v>
-      </c>
-      <c r="H26">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="D27">
-        <v>-100</v>
-      </c>
-      <c r="E27">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="F27">
-        <v>1.92</v>
-      </c>
-      <c r="G27">
-        <v>1.57</v>
-      </c>
-      <c r="H27">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.497</v>
-      </c>
-      <c r="D28">
-        <v>101</v>
-      </c>
-      <c r="E28">
-        <v>0.95</v>
-      </c>
-      <c r="F28">
-        <v>1.93</v>
-      </c>
-      <c r="G28">
-        <v>0.85</v>
-      </c>
-      <c r="H28">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D29">
-        <v>102</v>
-      </c>
-      <c r="E29">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="F29">
-        <v>1.9</v>
-      </c>
-      <c r="G29">
-        <v>1.7</v>
-      </c>
-      <c r="H29">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D30">
-        <v>104</v>
-      </c>
-      <c r="E30">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="F30">
-        <v>1.89</v>
-      </c>
-      <c r="G30">
-        <v>1.56</v>
-      </c>
-      <c r="H30">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D31">
-        <v>107</v>
-      </c>
-      <c r="E31">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="F31">
-        <v>1.87</v>
-      </c>
-      <c r="G31">
-        <v>1.69</v>
-      </c>
-      <c r="H31">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D32">
-        <v>118</v>
-      </c>
-      <c r="E32">
-        <v>0.875</v>
-      </c>
-      <c r="F32">
-        <v>1.8</v>
-      </c>
-      <c r="G32">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="H32">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D33">
-        <v>122</v>
-      </c>
-      <c r="E33">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="F33">
-        <v>1.8</v>
-      </c>
-      <c r="G33">
-        <v>1.92</v>
-      </c>
-      <c r="H33">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D34">
-        <v>124</v>
-      </c>
-      <c r="E34">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="F34">
-        <v>1.81</v>
-      </c>
-      <c r="G34">
-        <v>1.36</v>
-      </c>
-      <c r="H34">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D35">
-        <v>127</v>
-      </c>
-      <c r="E35">
-        <v>0.84</v>
-      </c>
-      <c r="F35">
-        <v>1.79</v>
-      </c>
-      <c r="G35">
-        <v>1.44</v>
-      </c>
-      <c r="H35">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="D36">
-        <v>136</v>
-      </c>
-      <c r="E36">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="F36">
-        <v>1.74</v>
-      </c>
-      <c r="G36">
-        <v>2.12</v>
-      </c>
-      <c r="H36">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D37">
-        <v>145</v>
-      </c>
-      <c r="E37">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="F37">
-        <v>1.72</v>
-      </c>
-      <c r="G37">
-        <v>1.46</v>
-      </c>
-      <c r="H37">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D38">
-        <v>155</v>
-      </c>
-      <c r="E38">
-        <v>0.748</v>
-      </c>
-      <c r="F38">
-        <v>1.69</v>
-      </c>
-      <c r="G38">
-        <v>1.61</v>
-      </c>
-      <c r="H38">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D39">
-        <v>158</v>
-      </c>
-      <c r="E39">
-        <v>0.74</v>
-      </c>
-      <c r="F39">
-        <v>1.69</v>
-      </c>
-      <c r="G39">
-        <v>1.24</v>
-      </c>
-      <c r="H39">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D40">
-        <v>167</v>
-      </c>
-      <c r="E40">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F40">
-        <v>1.65</v>
-      </c>
-      <c r="G40">
-        <v>1.58</v>
-      </c>
-      <c r="H40">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="D41">
-        <v>168</v>
-      </c>
-      <c r="E41">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="F41">
-        <v>1.65</v>
-      </c>
-      <c r="G41">
-        <v>1.48</v>
-      </c>
-      <c r="H41">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D42">
-        <v>189</v>
-      </c>
-      <c r="E42">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="F42">
-        <v>1.58</v>
-      </c>
-      <c r="G42">
-        <v>1.8</v>
-      </c>
-      <c r="H42">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D43">
-        <v>212</v>
-      </c>
-      <c r="E43">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F43">
-        <v>1.55</v>
-      </c>
-      <c r="G43">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H43">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.314</v>
-      </c>
-      <c r="D44">
-        <v>218</v>
-      </c>
-      <c r="E44">
-        <v>0.6</v>
-      </c>
-      <c r="F44">
-        <v>1.52</v>
-      </c>
-      <c r="G44">
-        <v>1.75</v>
-      </c>
-      <c r="H44">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="D45">
-        <v>220</v>
-      </c>
-      <c r="E45">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="F45">
-        <v>1.52</v>
-      </c>
-      <c r="G45">
-        <v>1.6</v>
-      </c>
-      <c r="H45">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D46">
-        <v>266</v>
-      </c>
-      <c r="E46">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="F46">
-        <v>1.46</v>
-      </c>
-      <c r="G46">
-        <v>0.9</v>
-      </c>
-      <c r="H46">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D47">
-        <v>312</v>
-      </c>
-      <c r="E47">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="F47">
-        <v>1.38</v>
-      </c>
-      <c r="G47">
-        <v>1.3</v>
-      </c>
-      <c r="H47">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D48">
-        <v>325</v>
-      </c>
-      <c r="E48">
-        <v>0.45</v>
-      </c>
-      <c r="F48">
-        <v>1.37</v>
-      </c>
       <c r="G48">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="H48">
-        <v>1.1100000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D49">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="E49">
-        <v>0.441</v>
+        <v>0.432</v>
       </c>
       <c r="F49">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="G49">
-        <v>0.75</v>
+        <v>1.57</v>
       </c>
       <c r="H49">
-        <v>1.74</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2">
-        <v>0.23</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D50">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="E50">
-        <v>0.441</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="F50">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H50">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="D51">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="E51">
-        <v>0.39100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F51">
         <v>1.29</v>
       </c>
       <c r="G51">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="H51">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="D52">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E52">
         <v>0.38400000000000001</v>
       </c>
       <c r="F52">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G52">
-        <v>0.81</v>
+        <v>1.07</v>
       </c>
       <c r="H52">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2">
-        <v>0.19600000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="D53">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="E53">
-        <v>0.374</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F53">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G53">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="H53">
-        <v>0.95</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2">
         <v>0.184</v>
       </c>
       <c r="D54">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E54">
-        <v>0.35099999999999998</v>
+        <v>0.377</v>
       </c>
       <c r="F54">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G54">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="H54">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="D55">
-        <v>878</v>
+        <v>449</v>
       </c>
       <c r="E55">
-        <v>0.19500000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="F55">
-        <v>1.1000000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="G55">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="H55">
-        <v>1.1200000000000001</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6150,15 +6228,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6169,62 +6247,62 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>36.380000000000003</v>
+        <v>39.08</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>35.700000000000003</v>
+        <v>37.64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>35.619999999999997</v>
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>26.78</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>25.8</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6232,120 +6310,120 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8">
-        <v>24.27</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9">
-        <v>18.350000000000001</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C10">
-        <v>17.190000000000001</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11">
-        <v>16.48</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>13.87</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13">
-        <v>12.54</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14">
-        <v>12.07</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>10.54</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C16">
-        <v>9.36</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C17">
-        <v>8.6199999999999992</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>7.57</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6356,166 +6434,166 @@
         <v>124</v>
       </c>
       <c r="C19">
-        <v>7.54</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
       </c>
       <c r="C20">
-        <v>6.93</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C21">
-        <v>6.91</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C22">
-        <v>4.93</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C23">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C24">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C25">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26">
-        <v>1.99</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C27">
-        <v>-0.03</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C28">
-        <v>-0.6</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C29">
-        <v>-1.64</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C30">
-        <v>-1.91</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C31">
-        <v>-2.98</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C32">
-        <v>-4.6900000000000004</v>
+        <v>-4.3099999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C33">
-        <v>-5.81</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6526,29 +6604,29 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>30.79</v>
+        <v>33.94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>30.13</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -6559,29 +6637,29 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>27.54</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40">
-        <v>27.12</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>26.41</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -6592,358 +6670,358 @@
         <v>15</v>
       </c>
       <c r="C42">
-        <v>26.33</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>24.98</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>24.93</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>24.75</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46">
-        <v>24.74</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>24.13</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>23.87</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>23.77</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>23.57</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>22.75</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>22.62</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>22.61</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>22.54</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>21.85</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>21.68</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>21.23</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>21.21</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>20.76</v>
+        <v>20.350000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>20.75</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>19.91</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63">
-        <v>19.13</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C64">
-        <v>19.100000000000001</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
       <c r="C65">
-        <v>19.07</v>
+        <v>18.079999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>17.39</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>17.29</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C68">
-        <v>17.2</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>16.28</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>16.170000000000002</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C71">
-        <v>16.149999999999999</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>16.04</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>16.02</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B76">
         <v>31</v>
@@ -6951,7 +7029,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B77">
         <v>37</v>
@@ -6959,7 +7037,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B78">
         <v>68</v>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3CD7D5-F26F-8A41-B9EC-4BCACC528083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646F57E-2962-1F45-977D-D2D70063A6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="5" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="6" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="179">
   <si>
     <t>Team</t>
   </si>
@@ -179,6 +179,9 @@
     <t>Georgia</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -422,9 +425,6 @@
     <t>SC</t>
   </si>
   <si>
-    <t>Samford</t>
-  </si>
-  <si>
     <t>OVC</t>
   </si>
   <si>
@@ -488,9 +488,6 @@
     <t>Central Connecticut</t>
   </si>
   <si>
-    <t>Little Rock</t>
-  </si>
-  <si>
     <t>VCU</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>SMU</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
     <t>Total probability sum: 15.219 (target: 16)</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 28</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -542,27 +533,12 @@
     <t>Number of teams meeting criteria: 44</t>
   </si>
   <si>
-    <t>South Dakota St.</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
     <t>Texas A&amp;M Corpus Chris</t>
   </si>
   <si>
     <t>Merrimack</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 17</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Xavier</t>
   </si>
   <si>
@@ -575,10 +551,34 @@
     <t>Number of teams meeting criteria: 11</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 34</t>
-  </si>
-  <si>
-    <t>Number of teams meeting criteria: 42</t>
+    <t>Number of teams meeting criteria: 15</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 29</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 37</t>
+  </si>
+  <si>
+    <t>Colorado St.</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 40</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>McNeese</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>SIUE</t>
   </si>
 </sst>
 </file>
@@ -964,9 +964,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC26E8-D6C2-0E4A-830A-7AA78E1502E8}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D11">
+        <v>534</v>
+      </c>
+      <c r="E11">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="F11">
+        <v>2.97</v>
+      </c>
+      <c r="G11">
+        <v>2.79</v>
+      </c>
+      <c r="H11">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D12">
+        <v>620</v>
+      </c>
+      <c r="E12">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F12">
+        <v>2.79</v>
+      </c>
+      <c r="G12">
+        <v>2.78</v>
+      </c>
+      <c r="H12">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D13">
+        <v>647</v>
+      </c>
+      <c r="E13">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="F13">
+        <v>2.72</v>
+      </c>
+      <c r="G13">
+        <v>2.86</v>
+      </c>
+      <c r="H13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="D14">
+        <v>703</v>
+      </c>
+      <c r="E14">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F14">
+        <v>2.76</v>
+      </c>
+      <c r="G14">
+        <v>2.17</v>
+      </c>
+      <c r="H14">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D15">
+        <v>1039</v>
+      </c>
+      <c r="E15">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F15">
+        <v>2.33</v>
+      </c>
+      <c r="G15">
+        <v>2.61</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D16">
+        <v>1085</v>
+      </c>
+      <c r="E16">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F16">
+        <v>2.44</v>
+      </c>
+      <c r="G16">
+        <v>1.74</v>
+      </c>
+      <c r="H16">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17">
+        <v>1331</v>
+      </c>
+      <c r="E17">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G17">
+        <v>2.44</v>
+      </c>
+      <c r="H17">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D18">
+        <v>1579</v>
+      </c>
+      <c r="E18">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="F18">
+        <v>2.12</v>
+      </c>
+      <c r="G18">
+        <v>2.21</v>
+      </c>
+      <c r="H18">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D19">
+        <v>1825</v>
+      </c>
+      <c r="E19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F19">
+        <v>2.06</v>
+      </c>
+      <c r="G19">
+        <v>2.17</v>
+      </c>
+      <c r="H19">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D20">
+        <v>2011</v>
+      </c>
+      <c r="E20">
+        <v>0.372</v>
+      </c>
+      <c r="F20">
+        <v>2.1</v>
+      </c>
+      <c r="G20">
+        <v>1.67</v>
+      </c>
+      <c r="H20">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>2142</v>
+      </c>
+      <c r="E21">
+        <v>0.35</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2.08</v>
+      </c>
+      <c r="H21">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D92530-17DC-CB45-8C20-9976A35F4891}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D12">
+        <v>278</v>
+      </c>
+      <c r="E12">
+        <v>1.327</v>
+      </c>
+      <c r="F12">
+        <v>2.97</v>
+      </c>
+      <c r="G12">
+        <v>2.79</v>
+      </c>
+      <c r="H12">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D13">
+        <v>324</v>
+      </c>
+      <c r="E13">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.79</v>
+      </c>
+      <c r="G13">
+        <v>2.78</v>
+      </c>
+      <c r="H13">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D14">
+        <v>336</v>
+      </c>
+      <c r="E14">
+        <v>1.151</v>
+      </c>
+      <c r="F14">
+        <v>2.72</v>
+      </c>
+      <c r="G14">
+        <v>2.86</v>
+      </c>
+      <c r="H14">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>379</v>
+      </c>
+      <c r="E15">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="F15">
+        <v>2.76</v>
+      </c>
+      <c r="G15">
+        <v>2.17</v>
+      </c>
+      <c r="H15">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D16">
+        <v>533</v>
+      </c>
+      <c r="E16">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F16">
+        <v>2.33</v>
+      </c>
+      <c r="G16">
+        <v>2.61</v>
+      </c>
+      <c r="H16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D17">
+        <v>591</v>
+      </c>
+      <c r="E17">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F17">
+        <v>2.44</v>
+      </c>
+      <c r="G17">
+        <v>1.74</v>
+      </c>
+      <c r="H17">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D18">
+        <v>671</v>
+      </c>
+      <c r="E18">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F18">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G18">
+        <v>2.44</v>
+      </c>
+      <c r="H18">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="D19">
+        <v>792</v>
+      </c>
+      <c r="E19">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F19">
+        <v>2.12</v>
+      </c>
+      <c r="G19">
+        <v>2.21</v>
+      </c>
+      <c r="H19">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>897</v>
+      </c>
+      <c r="E20">
+        <v>0.504</v>
+      </c>
+      <c r="F20">
+        <v>2.06</v>
+      </c>
+      <c r="G20">
+        <v>2.17</v>
+      </c>
+      <c r="H20">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D21">
+        <v>1025</v>
+      </c>
+      <c r="E21">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F21">
+        <v>2.1</v>
+      </c>
+      <c r="G21">
+        <v>1.67</v>
+      </c>
+      <c r="H21">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D22">
+        <v>1026</v>
+      </c>
+      <c r="E22">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F22">
+        <v>2.14</v>
+      </c>
+      <c r="G22">
+        <v>1.48</v>
+      </c>
+      <c r="H22">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D23">
+        <v>1030</v>
+      </c>
+      <c r="E23">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2.08</v>
+      </c>
+      <c r="H23">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D24">
+        <v>1249</v>
+      </c>
+      <c r="E24">
+        <v>0.373</v>
+      </c>
+      <c r="F24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G24">
+        <v>1.49</v>
+      </c>
+      <c r="H24">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>1988</v>
+      </c>
+      <c r="E25">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F25">
+        <v>1.86</v>
+      </c>
+      <c r="G25">
+        <v>1.57</v>
+      </c>
+      <c r="H25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D26">
+        <v>3220</v>
+      </c>
+      <c r="E26">
+        <v>0.151</v>
+      </c>
+      <c r="F26">
+        <v>1.76</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -977,452 +1870,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D11">
-        <v>485</v>
-      </c>
-      <c r="E11">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="F11">
-        <v>3.04</v>
-      </c>
-      <c r="G11">
-        <v>2.85</v>
-      </c>
-      <c r="H11">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D12">
-        <v>511</v>
-      </c>
-      <c r="E12">
-        <v>1.25</v>
-      </c>
-      <c r="F12">
-        <v>2.93</v>
-      </c>
-      <c r="G12">
-        <v>3.09</v>
-      </c>
-      <c r="H12">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D13">
-        <v>663</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2.76</v>
-      </c>
-      <c r="G13">
-        <v>2.33</v>
-      </c>
-      <c r="H13">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="D14">
-        <v>709</v>
-      </c>
-      <c r="E14">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="F14">
-        <v>2.64</v>
-      </c>
-      <c r="G14">
-        <v>2.59</v>
-      </c>
-      <c r="H14">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D15">
-        <v>1049</v>
-      </c>
-      <c r="E15">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="F15">
-        <v>2.29</v>
-      </c>
-      <c r="G15">
-        <v>2.64</v>
-      </c>
-      <c r="H15">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D16">
-        <v>1457</v>
-      </c>
-      <c r="E16">
-        <v>0.49</v>
-      </c>
-      <c r="F16">
-        <v>2.15</v>
-      </c>
-      <c r="G16">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H16">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D17">
-        <v>1464</v>
-      </c>
-      <c r="E17">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F17">
-        <v>2.12</v>
-      </c>
-      <c r="G17">
-        <v>2.36</v>
-      </c>
-      <c r="H17">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D18">
-        <v>1667</v>
-      </c>
-      <c r="E18">
-        <v>0.432</v>
-      </c>
-      <c r="F18">
-        <v>2.08</v>
-      </c>
-      <c r="G18">
-        <v>2.21</v>
-      </c>
-      <c r="H18">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D19">
-        <v>2215</v>
-      </c>
-      <c r="E19">
-        <v>0.33</v>
-      </c>
-      <c r="F19">
-        <v>2.06</v>
-      </c>
-      <c r="G19">
-        <v>1.61</v>
-      </c>
-      <c r="H19">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D20">
-        <v>2851</v>
-      </c>
-      <c r="E20">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F20">
-        <v>1.96</v>
-      </c>
-      <c r="G20">
-        <v>1.7</v>
-      </c>
-      <c r="H20">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D21">
-        <v>3078</v>
-      </c>
-      <c r="E21">
-        <v>0.24</v>
-      </c>
-      <c r="F21">
-        <v>1.92</v>
-      </c>
-      <c r="G21">
-        <v>1.8</v>
-      </c>
-      <c r="H21">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D22">
-        <v>3139</v>
-      </c>
-      <c r="E22">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F22">
-        <v>1.89</v>
-      </c>
-      <c r="G22">
-        <v>1.93</v>
-      </c>
-      <c r="H22">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D92530-17DC-CB45-8C20-9976A35F4891}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1432,7 +1905,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1469,282 +1942,282 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D12">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="E12">
-        <v>1.3959999999999999</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="F12">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="G12">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="H12">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="D13">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="E13">
-        <v>1.3540000000000001</v>
+        <v>1.417</v>
       </c>
       <c r="F13">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="G13">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D14">
-        <v>381</v>
+        <v>232</v>
       </c>
       <c r="E14">
-        <v>1.079</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="F14">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G14">
-        <v>2.33</v>
+        <v>2.86</v>
       </c>
       <c r="H14">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D15">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="E15">
-        <v>1.0369999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="F15">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="G15">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="H15">
-        <v>2.12</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="D16">
-        <v>572</v>
+        <v>346</v>
       </c>
       <c r="E16">
-        <v>0.77300000000000002</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="F16">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="G16">
-        <v>2.64</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>1.39</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.13100000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="D17">
-        <v>666</v>
+        <v>352</v>
       </c>
       <c r="E17">
-        <v>0.67800000000000005</v>
+        <v>1.008</v>
       </c>
       <c r="F17">
-        <v>2.4500000000000002</v>
+        <v>2.33</v>
       </c>
       <c r="G17">
-        <v>1.48</v>
+        <v>2.61</v>
       </c>
       <c r="H17">
-        <v>2.98</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.114</v>
+        <v>0.19</v>
       </c>
       <c r="D18">
-        <v>779</v>
+        <v>425</v>
       </c>
       <c r="E18">
-        <v>0.59</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F18">
-        <v>2.12</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G18">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H18">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.113</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D19">
-        <v>784</v>
+        <v>473</v>
       </c>
       <c r="E19">
-        <v>0.58699999999999997</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F19">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G19">
-        <v>2.2400000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D20">
-        <v>880</v>
+        <v>516</v>
       </c>
       <c r="E20">
-        <v>0.53</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="F20">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G20">
-        <v>2.21</v>
+        <v>1.48</v>
       </c>
       <c r="H20">
-        <v>1.48</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>7.8E-2</v>
+        <v>0.161</v>
       </c>
       <c r="D21">
-        <v>1185</v>
+        <v>521</v>
       </c>
       <c r="E21">
-        <v>0.40400000000000003</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F21">
         <v>2.06</v>
       </c>
       <c r="G21">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="H21">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.158</v>
       </c>
       <c r="D22">
-        <v>1216</v>
+        <v>532</v>
       </c>
       <c r="E22">
-        <v>0.39400000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F22">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="G22">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="H22">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1755,703 +2228,152 @@
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D23">
-        <v>1426</v>
+        <v>572</v>
       </c>
       <c r="E23">
-        <v>0.34</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="F23">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="H23">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>6.3E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D24">
-        <v>1479</v>
+        <v>592</v>
       </c>
       <c r="E24">
-        <v>0.32900000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F24">
-        <v>1.89</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G24">
-        <v>1.93</v>
+        <v>1.49</v>
       </c>
       <c r="H24">
-        <v>1.43</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>6.3E-2</v>
+        <v>0.115</v>
       </c>
       <c r="D25">
-        <v>1486</v>
+        <v>770</v>
       </c>
       <c r="E25">
-        <v>0.32700000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="F25">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="G25">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H25">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="D26">
-        <v>1762</v>
+        <v>800</v>
       </c>
       <c r="E26">
-        <v>0.27900000000000003</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F26">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="G26">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H26">
-        <v>2.0099999999999998</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D27">
-        <v>3328</v>
+        <v>840</v>
       </c>
       <c r="E27">
-        <v>0.151</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F27">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="G27">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="H27">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D28">
-        <v>3706</v>
+        <v>966</v>
       </c>
       <c r="E28">
-        <v>0.13600000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F28">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G28">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="H28">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF812A5C-DFB4-0842-994A-1F991B822E52}">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D12">
-        <v>177</v>
-      </c>
-      <c r="E12">
-        <v>1.64</v>
-      </c>
-      <c r="F12">
-        <v>3.04</v>
-      </c>
-      <c r="G12">
-        <v>2.85</v>
-      </c>
-      <c r="H12">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D13">
-        <v>189</v>
-      </c>
-      <c r="E13">
-        <v>1.571</v>
-      </c>
-      <c r="F13">
-        <v>2.93</v>
-      </c>
-      <c r="G13">
-        <v>3.09</v>
-      </c>
-      <c r="H13">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D14">
-        <v>238</v>
-      </c>
-      <c r="E14">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="F14">
-        <v>2.76</v>
-      </c>
-      <c r="G14">
-        <v>2.33</v>
-      </c>
-      <c r="H14">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D15">
-        <v>257</v>
-      </c>
-      <c r="E15">
-        <v>1.274</v>
-      </c>
-      <c r="F15">
-        <v>2.64</v>
-      </c>
-      <c r="G15">
-        <v>2.59</v>
-      </c>
-      <c r="H15">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="D16">
-        <v>359</v>
-      </c>
-      <c r="E16">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="F16">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G16">
-        <v>1.48</v>
-      </c>
-      <c r="H16">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="D17">
-        <v>364</v>
-      </c>
-      <c r="E17">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="F17">
-        <v>2.29</v>
-      </c>
-      <c r="G17">
-        <v>2.64</v>
-      </c>
-      <c r="H17">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="D18">
-        <v>456</v>
-      </c>
-      <c r="E18">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="F18">
-        <v>2.15</v>
-      </c>
-      <c r="G18">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H18">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D19">
-        <v>462</v>
-      </c>
-      <c r="E19">
-        <v>0.81</v>
-      </c>
-      <c r="F19">
-        <v>2.12</v>
-      </c>
-      <c r="G19">
-        <v>2.36</v>
-      </c>
-      <c r="H19">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D20">
-        <v>500</v>
-      </c>
-      <c r="E20">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="F20">
-        <v>2.08</v>
-      </c>
-      <c r="G20">
-        <v>2.21</v>
-      </c>
-      <c r="H20">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="D21">
-        <v>561</v>
-      </c>
-      <c r="E21">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F21">
         <v>2.09</v>
-      </c>
-      <c r="G21">
-        <v>1.42</v>
-      </c>
-      <c r="H21">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D22">
-        <v>569</v>
-      </c>
-      <c r="E22">
-        <v>0.68</v>
-      </c>
-      <c r="F22">
-        <v>2.06</v>
-      </c>
-      <c r="G22">
-        <v>1.61</v>
-      </c>
-      <c r="H22">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D23">
-        <v>632</v>
-      </c>
-      <c r="E23">
-        <v>0.622</v>
-      </c>
-      <c r="F23">
-        <v>1.92</v>
-      </c>
-      <c r="G23">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H23">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D24">
-        <v>656</v>
-      </c>
-      <c r="E24">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="F24">
-        <v>1.96</v>
-      </c>
-      <c r="G24">
-        <v>1.7</v>
-      </c>
-      <c r="H24">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.127</v>
-      </c>
-      <c r="D25">
-        <v>688</v>
-      </c>
-      <c r="E25">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="F25">
-        <v>1.92</v>
-      </c>
-      <c r="G25">
-        <v>1.8</v>
-      </c>
-      <c r="H25">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.124</v>
-      </c>
-      <c r="D26">
-        <v>703</v>
-      </c>
-      <c r="E26">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F26">
-        <v>1.89</v>
-      </c>
-      <c r="G26">
-        <v>1.93</v>
-      </c>
-      <c r="H26">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.122</v>
-      </c>
-      <c r="D27">
-        <v>718</v>
-      </c>
-      <c r="E27">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="F27">
-        <v>1.93</v>
-      </c>
-      <c r="G27">
-        <v>1.48</v>
-      </c>
-      <c r="H27">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D28">
-        <v>897</v>
-      </c>
-      <c r="E28">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="F28">
-        <v>1.84</v>
-      </c>
-      <c r="G28">
-        <v>1.3</v>
-      </c>
-      <c r="H28">
-        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2465,175 +2387,175 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="D29">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E29">
-        <v>0.41199999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="F29">
         <v>1.76</v>
       </c>
       <c r="G29">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="D30">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E30">
-        <v>0.40400000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="F30">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G30">
-        <v>1.44</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H30">
-        <v>1.72</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>8.7999999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D31">
-        <v>1042</v>
+        <v>1119</v>
       </c>
       <c r="E31">
-        <v>0.39900000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="F31">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="G31">
-        <v>1.1399999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="H31">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D32">
-        <v>1136</v>
+        <v>1231</v>
       </c>
       <c r="E32">
-        <v>0.36799999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F32">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G32">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="H32">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D33">
-        <v>1386</v>
+        <v>1238</v>
       </c>
       <c r="E33">
-        <v>0.30599999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F33">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G33">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="H33">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D34">
-        <v>1412</v>
+        <v>1245</v>
       </c>
       <c r="E34">
-        <v>0.30099999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F34">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G34">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="H34">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D35">
-        <v>1426</v>
+        <v>1644</v>
       </c>
       <c r="E35">
-        <v>0.29799999999999999</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F35">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G35">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H35">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2644,125 +2566,151 @@
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D36">
-        <v>1593</v>
+        <v>1693</v>
       </c>
       <c r="E36">
-        <v>0.26900000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="F36">
+        <v>1.56</v>
+      </c>
+      <c r="G36">
         <v>1.58</v>
       </c>
-      <c r="G36">
-        <v>1.55</v>
-      </c>
       <c r="H36">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
-        <v>2132</v>
+        <v>1883</v>
       </c>
       <c r="E37">
-        <v>0.20399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="F37">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G37">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="H37">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D38">
-        <v>2209</v>
+        <v>2707</v>
       </c>
       <c r="E38">
-        <v>0.19700000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F38">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G38">
-        <v>1.38</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H38">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D39">
-        <v>3855</v>
+        <v>3191</v>
       </c>
       <c r="E39">
-        <v>0.115</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F39">
         <v>1.45</v>
       </c>
       <c r="G39">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="H39">
-        <v>1.43</v>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D40">
+        <v>3662</v>
+      </c>
+      <c r="E40">
+        <v>0.121</v>
+      </c>
+      <c r="F40">
+        <v>1.46</v>
+      </c>
+      <c r="G40">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H40">
+        <v>1.53</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2772,9 +2720,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825CF93-4158-144F-A7C0-50341FAA3534}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2785,43 +2733,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2858,48 +2806,48 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.58899999999999997</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D12">
-        <v>-143</v>
+        <v>-118</v>
       </c>
       <c r="E12">
-        <v>1.7150000000000001</v>
+        <v>1.647</v>
       </c>
       <c r="F12">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="G12">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="H12">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.55500000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D13">
-        <v>-124</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>1.615</v>
+        <v>1.478</v>
       </c>
       <c r="F13">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="G13">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2910,48 +2858,48 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.497</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>1.446</v>
+        <v>1.444</v>
       </c>
       <c r="F14">
         <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="H14">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.46</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D15">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15">
-        <v>1.341</v>
+        <v>1.421</v>
       </c>
       <c r="F15">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G15">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="H15">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,22 +2910,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="D16">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E16">
-        <v>1.1419999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F16">
-        <v>2.4500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="G16">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2988,22 +2936,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D17">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E17">
-        <v>1.0129999999999999</v>
+        <v>1.046</v>
       </c>
       <c r="F17">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="G17">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="H17">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3014,152 +2962,152 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D18">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18">
-        <v>0.875</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G18">
-        <v>2.2400000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="H18">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D19">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E19">
-        <v>0.85499999999999998</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F19">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G19">
-        <v>2.36</v>
+        <v>1.48</v>
       </c>
       <c r="H19">
-        <v>1.39</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="D20">
         <v>256</v>
       </c>
       <c r="E20">
-        <v>0.81599999999999995</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="F20">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="G20">
-        <v>1.42</v>
+        <v>2.21</v>
       </c>
       <c r="H20">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D21">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E21">
-        <v>0.81399999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="F21">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>1.48</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="D22">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E22">
-        <v>0.78800000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="F22">
         <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="H22">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25800000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D23">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F23">
-        <v>2.0099999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G23">
-        <v>2.4900000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="H23">
-        <v>1.03</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3170,279 +3118,279 @@
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D24">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E24">
-        <v>0.69299999999999995</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="H24">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>0.22900000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D25">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="E25">
-        <v>0.66600000000000004</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G25">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="H25">
-        <v>2.0099999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.22800000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D26">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="E26">
-        <v>0.66200000000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F26">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G26">
-        <v>2.2200000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="H26">
-        <v>1.1599999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D27">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="E27">
-        <v>0.65600000000000003</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="F27">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G27">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="H27">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>0.222</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D28">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E28">
-        <v>0.64700000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="F28">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G28">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="H28">
-        <v>0.95</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.217</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D29">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="E29">
-        <v>0.63100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G29">
-        <v>1.93</v>
+        <v>2.29</v>
       </c>
       <c r="H29">
-        <v>1.43</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>0.19700000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="D30">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E30">
-        <v>0.57499999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="F30">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G30">
+        <v>1.95</v>
+      </c>
+      <c r="H30">
         <v>1.3</v>
-      </c>
-      <c r="H30">
-        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>0.18099999999999999</v>
       </c>
       <c r="D31">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E31">
-        <v>0.52700000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="F31">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G31">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="H31">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>0.17299999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D32">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E32">
-        <v>0.503</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="F32">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>1.53</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H32">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>0.17299999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D33">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="E33">
-        <v>0.503</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="F33">
         <v>1.76</v>
       </c>
       <c r="G33">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H33">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D34">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="E34">
-        <v>0.49199999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="F34">
         <v>1.74</v>
       </c>
       <c r="G34">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="H34">
         <v>0.91</v>
@@ -3456,100 +3404,100 @@
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>0.16</v>
+        <v>0.154</v>
       </c>
       <c r="D35">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="E35">
-        <v>0.46500000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="F35">
         <v>1.72</v>
       </c>
       <c r="G35">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="H35">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>0.14399999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D36">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E36">
-        <v>0.41899999999999998</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F36">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G36">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="H36">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D37">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="E37">
-        <v>0.40699999999999997</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F37">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G37">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H37">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>0.13800000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D38">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="E38">
-        <v>0.40100000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="F38">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G38">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="H38">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3560,203 +3508,281 @@
         <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>0.11899999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D39">
-        <v>738</v>
+        <v>651</v>
       </c>
       <c r="E39">
-        <v>0.34699999999999998</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F39">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G39">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="H39">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D40">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="E40">
-        <v>0.34300000000000003</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="F40">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G40">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="H40">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>9.8000000000000004E-2</v>
+        <v>0.107</v>
       </c>
       <c r="D41">
-        <v>923</v>
+        <v>831</v>
       </c>
       <c r="E41">
-        <v>0.28399999999999997</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F41">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G41">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="H41">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>0.107</v>
       </c>
       <c r="D42">
-        <v>932</v>
+        <v>837</v>
       </c>
       <c r="E42">
-        <v>0.28199999999999997</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F42">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G42">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="H42">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
-        <v>0.08</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D43">
-        <v>1154</v>
+        <v>968</v>
       </c>
       <c r="E43">
-        <v>0.23200000000000001</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F43">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G43">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>1.58</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D44">
-        <v>1274</v>
+        <v>1034</v>
       </c>
       <c r="E44">
-        <v>0.21199999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F44">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G44">
-        <v>1.18</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H44">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D45">
+        <v>1250</v>
+      </c>
+      <c r="E45">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F45">
+        <v>1.46</v>
+      </c>
+      <c r="G45">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H45">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D45">
-        <v>1568</v>
-      </c>
-      <c r="E45">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="F45">
-        <v>1.41</v>
-      </c>
-      <c r="G45">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H45">
-        <v>1.38</v>
+      <c r="C46" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D46">
+        <v>1271</v>
+      </c>
+      <c r="E46">
+        <v>0.222</v>
+      </c>
+      <c r="F46">
+        <v>1.45</v>
+      </c>
+      <c r="G46">
+        <v>1.34</v>
+      </c>
+      <c r="H46">
+        <v>1.27</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>1433</v>
+      </c>
+      <c r="E47">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F47">
+        <v>1.43</v>
+      </c>
+      <c r="G47">
+        <v>1.62</v>
+      </c>
+      <c r="H47">
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D48">
+        <v>1476</v>
+      </c>
+      <c r="E48">
+        <v>0.193</v>
+      </c>
+      <c r="F48">
+        <v>1.42</v>
+      </c>
+      <c r="G48">
+        <v>1.43</v>
+      </c>
+      <c r="H48">
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3766,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE6D6-9C95-3340-900D-F6BB0DB95F3F}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3779,48 +3805,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3831,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -3857,48 +3883,48 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D12">
-        <v>-1767945</v>
+        <v>-2592</v>
       </c>
       <c r="E12">
-        <v>1.831</v>
+        <v>1.762</v>
       </c>
       <c r="F12">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="G12">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="H12">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.94499999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="D13">
-        <v>-1707</v>
+        <v>-671</v>
       </c>
       <c r="E13">
-        <v>1.73</v>
+        <v>1.593</v>
       </c>
       <c r="F13">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="G13">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3912,45 +3938,45 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="D14">
-        <v>-580</v>
+        <v>-579</v>
       </c>
       <c r="E14">
-        <v>1.5620000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="F14">
         <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="H14">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.79500000000000004</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D15">
-        <v>-388</v>
+        <v>-522</v>
       </c>
       <c r="E15">
-        <v>1.456</v>
+        <v>1.536</v>
       </c>
       <c r="F15">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G15">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="H15">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3961,22 +3987,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.68799999999999994</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D16">
-        <v>-220</v>
+        <v>-224</v>
       </c>
       <c r="E16">
-        <v>1.2589999999999999</v>
+        <v>1.266</v>
       </c>
       <c r="F16">
-        <v>2.4500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="G16">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3987,22 +4013,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.61599999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D17">
-        <v>-160</v>
+        <v>-173</v>
       </c>
       <c r="E17">
-        <v>1.1279999999999999</v>
+        <v>1.161</v>
       </c>
       <c r="F17">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="G17">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="H17">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4013,152 +4039,152 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D18">
-        <v>-117</v>
+        <v>-127</v>
       </c>
       <c r="E18">
-        <v>0.99</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G18">
-        <v>2.2400000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="H18">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D19">
-        <v>-112</v>
+        <v>-115</v>
       </c>
       <c r="E19">
-        <v>0.96899999999999997</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F19">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G19">
-        <v>2.36</v>
+        <v>1.48</v>
       </c>
       <c r="H19">
-        <v>1.39</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D20">
-        <v>-103</v>
+        <v>-112</v>
       </c>
       <c r="E20">
-        <v>0.93200000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F20">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="G20">
-        <v>1.42</v>
+        <v>2.21</v>
       </c>
       <c r="H20">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D21">
-        <v>-102</v>
+        <v>-106</v>
       </c>
       <c r="E21">
-        <v>0.92800000000000005</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F21">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>1.48</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.49399999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="D22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22">
-        <v>0.90400000000000003</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="F22">
         <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="H22">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D23">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E23">
-        <v>0.86399999999999999</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="F23">
-        <v>2.0099999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G23">
-        <v>2.4900000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="H23">
-        <v>1.03</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4169,178 +4195,178 @@
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.442</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D24">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E24">
-        <v>0.80900000000000005</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="H24">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D25">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E25">
-        <v>0.78100000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G25">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="H25">
-        <v>2.0099999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D26">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E26">
-        <v>0.77700000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="F26">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G26">
-        <v>2.2200000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="H26">
-        <v>1.1599999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>0.42099999999999999</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D27">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E27">
-        <v>0.77100000000000002</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="F27">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G27">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="H27">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D28">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E28">
-        <v>0.76100000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F28">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G28">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="H28">
-        <v>0.95</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D29">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E29">
-        <v>0.746</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G29">
-        <v>1.93</v>
+        <v>2.29</v>
       </c>
       <c r="H29">
-        <v>1.43</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>0.377</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D30">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30">
-        <v>0.69099999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="F30">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G30">
+        <v>1.95</v>
+      </c>
+      <c r="H30">
         <v>1.3</v>
-      </c>
-      <c r="H30">
-        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4351,334 +4377,334 @@
         <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D31">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31">
-        <v>0.66100000000000003</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="F31">
         <v>1.81</v>
       </c>
       <c r="G31">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="H31">
-        <v>2.2400000000000002</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>0.35199999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D32">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E32">
-        <v>0.64400000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F32">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H32">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>0.33800000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D33">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E33">
-        <v>0.61799999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="F33">
         <v>1.76</v>
       </c>
       <c r="G33">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H33">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>0.33800000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D34">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E34">
-        <v>0.61799999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="F34">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G34">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="H34">
-        <v>1.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D35">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E35">
-        <v>0.60699999999999998</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="F35">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G35">
-        <v>2.13</v>
+        <v>1.46</v>
       </c>
       <c r="H35">
-        <v>0.91</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>0.317</v>
+        <v>0.308</v>
       </c>
       <c r="D36">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E36">
-        <v>0.58099999999999996</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="F36">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G36">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="H36">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="D37">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E37">
-        <v>0.53500000000000003</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="F37">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G37">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="H37">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D38">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E38">
-        <v>0.52300000000000002</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="F38">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G38">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="H38">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>0.28199999999999997</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D39">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E39">
-        <v>0.51700000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="F39">
         <v>1.65</v>
       </c>
       <c r="G39">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="H39">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
-        <v>0.252</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D40">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E40">
-        <v>0.46200000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="F40">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G40">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="H40">
-        <v>0.97</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>0.25</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D41">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E41">
-        <v>0.45800000000000002</v>
+        <v>0.442</v>
       </c>
       <c r="F41">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G41">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="H41">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>0.218</v>
+        <v>0.24</v>
       </c>
       <c r="D42">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="E42">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F42">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G42">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="H42">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
-        <v>0.217</v>
+        <v>0.218</v>
       </c>
       <c r="D43">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E43">
-        <v>0.39800000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F43">
         <v>1.52</v>
       </c>
       <c r="G43">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>1.35</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4689,126 +4715,126 @@
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D44">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="E44">
-        <v>0.34799999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F44">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="G44">
-        <v>1.08</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H44">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2">
-        <v>0.17899999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="D45">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="E45">
-        <v>0.32800000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F45">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G45">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H45">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="2">
-        <v>0.159</v>
+        <v>0.184</v>
       </c>
       <c r="D46">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="E46">
-        <v>0.28999999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="F46">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G46">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="H46">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2">
-        <v>0.15</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D47">
-        <v>565</v>
+        <v>484</v>
       </c>
       <c r="E47">
-        <v>0.27500000000000002</v>
+        <v>0.313</v>
       </c>
       <c r="F47">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G47">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H47">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2">
-        <v>0.126</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D48">
-        <v>691</v>
+        <v>493</v>
       </c>
       <c r="E48">
-        <v>0.23100000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="F48">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="G48">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="H48">
-        <v>0.78</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4816,154 +4842,102 @@
         <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="D49">
-        <v>881</v>
+        <v>680</v>
       </c>
       <c r="E49">
-        <v>0.187</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F49">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G49">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="H49">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="D50">
-        <v>890</v>
+        <v>715</v>
       </c>
       <c r="E50">
-        <v>0.185</v>
+        <v>0.224</v>
       </c>
       <c r="F50">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G50">
-        <v>1.5</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H50">
-        <v>0.78</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="2">
-        <v>0.1</v>
+        <v>0.123</v>
       </c>
       <c r="D51">
-        <v>901</v>
+        <v>715</v>
       </c>
       <c r="E51">
-        <v>0.183</v>
+        <v>0.224</v>
       </c>
       <c r="F51">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="G51">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="H51">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D52">
-        <v>913</v>
-      </c>
-      <c r="E52">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="F52">
-        <v>1.29</v>
-      </c>
-      <c r="G52">
-        <v>0.99</v>
-      </c>
-      <c r="H52">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D53">
-        <v>941</v>
-      </c>
-      <c r="E53">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="F53">
-        <v>1.29</v>
-      </c>
-      <c r="G53">
-        <v>0.99</v>
-      </c>
-      <c r="H53">
-        <v>1.34</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4973,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4986,42 +4960,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5064,42 +5038,42 @@
         <v>-9899</v>
       </c>
       <c r="E12">
-        <v>2.028</v>
+        <v>1.96</v>
       </c>
       <c r="F12">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="G12">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="H12">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.94199999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D13">
-        <v>-1621</v>
+        <v>-954</v>
       </c>
       <c r="E13">
-        <v>1.93</v>
+        <v>1.792</v>
       </c>
       <c r="F13">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="G13">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5110,48 +5084,48 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.85799999999999998</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D14">
-        <v>-603</v>
+        <v>-782</v>
       </c>
       <c r="E14">
-        <v>1.758</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="F14">
         <v>2.76</v>
       </c>
       <c r="G14">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="H14">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.80700000000000005</v>
+        <v>0.877</v>
       </c>
       <c r="D15">
-        <v>-419</v>
+        <v>-713</v>
       </c>
       <c r="E15">
-        <v>1.6539999999999999</v>
+        <v>1.736</v>
       </c>
       <c r="F15">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G15">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="H15">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5162,22 +5136,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.70799999999999996</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D16">
-        <v>-242</v>
+        <v>-280</v>
       </c>
       <c r="E16">
-        <v>1.4510000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="F16">
-        <v>2.4500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="G16">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5188,22 +5162,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D17">
-        <v>-184</v>
+        <v>-220</v>
       </c>
       <c r="E17">
-        <v>1.329</v>
+        <v>1.3620000000000001</v>
       </c>
       <c r="F17">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="G17">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="H17">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5214,360 +5188,360 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="D18">
-        <v>-138</v>
+        <v>-162</v>
       </c>
       <c r="E18">
-        <v>1.19</v>
+        <v>1.226</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G18">
-        <v>2.2400000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="H18">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D19">
-        <v>-133</v>
+        <v>-146</v>
       </c>
       <c r="E19">
-        <v>1.17</v>
+        <v>1.177</v>
       </c>
       <c r="F19">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G19">
-        <v>2.36</v>
+        <v>1.48</v>
       </c>
       <c r="H19">
-        <v>1.39</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.55100000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="D20">
-        <v>-122</v>
+        <v>-143</v>
       </c>
       <c r="E20">
-        <v>1.1279999999999999</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="F20">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G20">
         <v>2.21</v>
       </c>
       <c r="H20">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D21">
-        <v>-122</v>
+        <v>-135</v>
       </c>
       <c r="E21">
-        <v>1.1259999999999999</v>
+        <v>1.139</v>
       </c>
       <c r="F21">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D22">
-        <v>-115</v>
+        <v>-126</v>
       </c>
       <c r="E22">
-        <v>1.099</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="F22">
         <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="H22">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D23">
-        <v>-108</v>
+        <v>-122</v>
       </c>
       <c r="E23">
-        <v>1.0669999999999999</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="F23">
-        <v>2.0099999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G23">
-        <v>2.4900000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="H23">
-        <v>1.03</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D24">
-        <v>103</v>
+        <v>-120</v>
       </c>
       <c r="E24">
-        <v>1.006</v>
+        <v>1.083</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G24">
-        <v>1.7</v>
+        <v>0.94</v>
       </c>
       <c r="H24">
-        <v>1.82</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D25">
-        <v>109</v>
+        <v>-113</v>
       </c>
       <c r="E25">
-        <v>0.97799999999999998</v>
+        <v>1.054</v>
       </c>
       <c r="F25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2.2200000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="H25">
-        <v>1.1599999999999999</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.47699999999999998</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D26">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26">
-        <v>0.97699999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F26">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="H26">
-        <v>2.0099999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="D27">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E27">
-        <v>0.96899999999999997</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F27">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G27">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="H27">
-        <v>1.62</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.47099999999999997</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D28">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E28">
-        <v>0.96399999999999997</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F28">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G28">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="H28">
-        <v>0.95</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29">
-        <v>0.95499999999999996</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F29">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="G29">
-        <v>0.86</v>
+        <v>2.29</v>
       </c>
       <c r="H29">
-        <v>2.68</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D30">
         <v>116</v>
       </c>
       <c r="E30">
-        <v>0.94599999999999995</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F30">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="G30">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="H30">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>0.432</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D31">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E31">
-        <v>0.88600000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F31">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G31">
+        <v>1.95</v>
+      </c>
+      <c r="H31">
         <v>1.3</v>
-      </c>
-      <c r="H31">
-        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -5578,48 +5552,48 @@
         <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="D32">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E32">
-        <v>0.85499999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="F32">
         <v>1.81</v>
       </c>
       <c r="G32">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32">
-        <v>2.2400000000000002</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>0.40899999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D33">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E33">
-        <v>0.83799999999999997</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="F33">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G33">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H33">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5630,464 +5604,464 @@
         <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D34">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E34">
-        <v>0.81599999999999995</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F34">
         <v>1.76</v>
       </c>
       <c r="G34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H34">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D35">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E35">
-        <v>0.81499999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F35">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G35">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="H35">
-        <v>1.72</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>0.39500000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D36">
         <v>153</v>
       </c>
       <c r="E36">
-        <v>0.80900000000000005</v>
+        <v>0.78</v>
       </c>
       <c r="F36">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G36">
-        <v>2.13</v>
+        <v>1.46</v>
       </c>
       <c r="H36">
-        <v>0.91</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>0.38</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D37">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E37">
-        <v>0.77800000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="F37">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G37">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="H37">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>0.35599999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E38">
-        <v>0.73</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="F38">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G38">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="H38">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.376</v>
       </c>
       <c r="D39">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E39">
-        <v>0.71899999999999997</v>
+        <v>0.745</v>
       </c>
       <c r="F39">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G39">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="H39">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D40">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E40">
-        <v>0.71299999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="F40">
         <v>1.65</v>
       </c>
       <c r="G40">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="H40">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D41">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E41">
-        <v>0.66300000000000003</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="F41">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G41">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="H41">
-        <v>0.97</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>0.32100000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D42">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42">
-        <v>0.65700000000000003</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="F42">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G42">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="H42">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D43">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="E43">
-        <v>0.59799999999999998</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="F43">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G43">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="H43">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D44">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E44">
-        <v>0.59599999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="F44">
         <v>1.52</v>
       </c>
       <c r="G44">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="H44">
-        <v>1.35</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D45">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="E45">
-        <v>0.54400000000000004</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F45">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G45">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D46">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="E46">
-        <v>0.52500000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F46">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G46">
-        <v>1.18</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H46">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D47">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="E47">
-        <v>0.48699999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F47">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="G47">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H47">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2">
-        <v>0.23300000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="D48">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="E48">
-        <v>0.47599999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F48">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="G48">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="H48">
-        <v>0.78</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="D49">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="E49">
-        <v>0.432</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="F49">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="G49">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H49">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2">
-        <v>0.20200000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D50">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="E50">
-        <v>0.41299999999999998</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="F50">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="G50">
-        <v>0.85</v>
+        <v>1.43</v>
       </c>
       <c r="H50">
-        <v>1.59</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2">
-        <v>0.188</v>
+        <v>0.23</v>
       </c>
       <c r="D51">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="E51">
-        <v>0.38500000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F51">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="G51">
-        <v>1.5</v>
+        <v>0.81</v>
       </c>
       <c r="H51">
-        <v>0.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -6095,128 +6069,206 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2">
-        <v>0.187</v>
+        <v>0.219</v>
       </c>
       <c r="D52">
-        <v>433</v>
+        <v>357</v>
       </c>
       <c r="E52">
-        <v>0.38400000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="F52">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G52">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="H52">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
       <c r="C53" s="2">
-        <v>0.187</v>
+        <v>0.216</v>
       </c>
       <c r="D53">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="E53">
-        <v>0.38300000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F53">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="G53">
-        <v>1.46</v>
+        <v>0.76</v>
       </c>
       <c r="H53">
-        <v>0.81</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2">
-        <v>0.184</v>
+        <v>0.214</v>
       </c>
       <c r="D54">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="E54">
-        <v>0.377</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F54">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="G54">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H54">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C55" s="2">
-        <v>0.182</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D55">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="E55">
-        <v>0.373</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="F55">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G55">
-        <v>0.99</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H55">
-        <v>1.34</v>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="D56">
+        <v>440</v>
+      </c>
+      <c r="E56">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F56">
+        <v>1.28</v>
+      </c>
+      <c r="G56">
+        <v>0.94</v>
+      </c>
+      <c r="H56">
+        <v>1.39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D57">
+        <v>629</v>
+      </c>
+      <c r="E57">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F57">
+        <v>1.18</v>
+      </c>
+      <c r="G57">
+        <v>0.86</v>
+      </c>
+      <c r="H57">
+        <v>1.28</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>899</v>
+      </c>
+      <c r="E58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.77</v>
+      </c>
+      <c r="H58">
+        <v>1.23</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6226,781 +6278,781 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>39.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>37.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>35.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>35.450000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>26.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8">
-        <v>24.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9">
-        <v>21.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10">
-        <v>18.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>16.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
-      <c r="C14">
-        <v>11.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="C15">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>119</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
         <v>150</v>
       </c>
-      <c r="C20">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D22">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="C21">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>131</v>
       </c>
-      <c r="C24">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>135</v>
       </c>
-      <c r="B25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>136</v>
       </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>147</v>
       </c>
-      <c r="C28">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29">
-        <v>-0.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>-1.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>138</v>
       </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30">
-        <v>-2.98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31">
+        <v>-4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32">
-        <v>-4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32">
+        <v>-4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>140</v>
       </c>
-      <c r="C33">
-        <v>-4.82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>-5.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
       <c r="C36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>35.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>33.94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>28.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>29.41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41">
-        <v>26.72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>26.47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>25.79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45">
-        <v>24.81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>24.63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>24.62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
       <c r="C48">
-        <v>24.39</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C49">
-        <v>24.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>23.58</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
       <c r="C51">
-        <v>23.21</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="C52">
-        <v>22.96</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>22.56</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="C54">
-        <v>22.55</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>22.3</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C56">
-        <v>22.05</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="C57">
-        <v>21.45</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58">
-        <v>21.19</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
       <c r="C59">
-        <v>20.350000000000001</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>20.34</v>
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C61">
-        <v>19.55</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C62">
-        <v>19.52</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
         <v>44</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
       <c r="C63">
-        <v>18.89</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
         <v>142</v>
       </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
       <c r="C64">
-        <v>18.28</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C65">
-        <v>18.079999999999998</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C66">
-        <v>17.79</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C67">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C68">
-        <v>16.78</v>
+        <v>17.690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C69">
-        <v>16.77</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="C70">
-        <v>16.66</v>
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C71">
-        <v>16.59</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C72">
-        <v>16.57</v>
+        <v>16.440000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -7008,22 +7060,22 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C73">
-        <v>16.55</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>31</v>
       </c>
     </row>
@@ -7031,7 +7083,7 @@
       <c r="A77" t="s">
         <v>144</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>37</v>
       </c>
     </row>
@@ -7039,7 +7091,7 @@
       <c r="A78" t="s">
         <v>145</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>68</v>
       </c>
     </row>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646F57E-2962-1F45-977D-D2D70063A6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6175780F-E761-6046-88AA-8126C9EFC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="6" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="5" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>UC San Diego</t>
   </si>
   <si>
-    <t>Number of teams meeting criteria: 44</t>
-  </si>
-  <si>
     <t>Texas A&amp;M Corpus Chris</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>SIUE</t>
+  </si>
+  <si>
+    <t>Number of teams meeting criteria: 47</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2764,7 +2764,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -4949,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
@@ -6280,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C73"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6428,7 +6428,7 @@
         <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14">
         <v>13.69</v>
@@ -6527,7 +6527,7 @@
         <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23">
         <v>4.93</v>
@@ -6549,7 +6549,7 @@
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25">
         <v>2.08</v>
@@ -6571,7 +6571,7 @@
         <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27">
         <v>0.25</v>
@@ -6604,7 +6604,7 @@
         <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30">
         <v>-2.15</v>
@@ -6615,7 +6615,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31">
         <v>-4.3099999999999996</v>
@@ -6626,7 +6626,7 @@
         <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32">
         <v>-4.8899999999999997</v>
@@ -7005,7 +7005,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68">
         <v>17.690000000000001</v>
@@ -7016,7 +7016,7 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>17.3</v>
@@ -7027,7 +7027,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70">
         <v>17.170000000000002</v>
@@ -7049,7 +7049,7 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72">
         <v>16.440000000000001</v>

--- a/ncaaModelOutcomes.xlsx
+++ b/ncaaModelOutcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiahnick/Desktop/NCAAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6175780F-E761-6046-88AA-8126C9EFC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19B378-9A76-7C46-9474-8E8EB2FDE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="5" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="19940" activeTab="6" xr2:uid="{48E97E4C-EE8F-4D4C-B07B-683BDA3BBCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="2" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CF770-8328-7447-B6BD-A2D494CAA547}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -6278,377 +6278,377 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04F142-2826-6D40-AD77-493323D02C9D}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>38.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>35.83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>35.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>27.57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>27.29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>152</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>26.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>20.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>18.78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>160</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>15.14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>14.14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>174</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>13.69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>114</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>13.53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>9.49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>146</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>9.32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>7.93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>124</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>7.22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>149</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>6.57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>150</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>5.14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>175</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>4.93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>131</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>4.03</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>135</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>176</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>2.08</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>136</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>151</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>1.18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>162</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>-1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>137</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>147</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>-1.76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>138</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>163</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>-2.15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>177</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>-4.3099999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>165</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>-4.8899999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>140</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>-5.68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>35.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>24.07</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
